--- a/extras/negative-zero-positive-correlation.xlsx
+++ b/extras/negative-zero-positive-correlation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16473E62-416B-4737-97BC-E412B1DD96A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38485821-3777-40A1-B164-338348BEF0C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-25693" yWindow="-33" windowWidth="25786" windowHeight="14586" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -380,304 +380,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-0.75507011011283076</c:v>
+                  <c:v>0.51106172320775922</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.1940699383693243</c:v>
+                  <c:v>-2.0604042600324708</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.177695974229388E-2</c:v>
+                  <c:v>0.92035845749087797</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7997668222085266</c:v>
+                  <c:v>-1.4289821155946405</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8406099152977905</c:v>
+                  <c:v>-1.6308449934955633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1607508794362784</c:v>
+                  <c:v>-1.4440124958056868</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.15906321431147355</c:v>
+                  <c:v>-0.4698502981257725</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.68100779859664573</c:v>
+                  <c:v>0.47088120723859567</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.89175559817508143</c:v>
+                  <c:v>-0.17401472660061168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.8054034451246395</c:v>
+                  <c:v>1.0605589349137572</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2572871071375184</c:v>
+                  <c:v>-1.1251106617943119</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.8053464593428477</c:v>
+                  <c:v>-1.4326757959567615</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99658164707004437</c:v>
+                  <c:v>-0.19521518161919463</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5801056508277735</c:v>
+                  <c:v>0.5651193265304495</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.885921627899307</c:v>
+                  <c:v>1.7943429666293347</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7484308450519577</c:v>
+                  <c:v>0.22213758714556311</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.23172615067575386</c:v>
+                  <c:v>0.75064700479891255</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.35371956542182065</c:v>
+                  <c:v>-1.0169171951907423</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.50274795462617616</c:v>
+                  <c:v>1.1959668078130974</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.85145816416487807</c:v>
+                  <c:v>0.50932917208742012</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.15090969174184141</c:v>
+                  <c:v>-1.0264252607756268</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0514702167728553</c:v>
+                  <c:v>1.2318042077320153</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.7194872084875557</c:v>
+                  <c:v>0.54039368910530194</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.67636640672112236</c:v>
+                  <c:v>-1.5482189139363509</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.15031222781521311</c:v>
+                  <c:v>1.2387647254719836</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.6245678301232827</c:v>
+                  <c:v>1.2460990147414646</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0529266493596649E-2</c:v>
+                  <c:v>1.0116234222422553</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.23384782902966461</c:v>
+                  <c:v>0.1854285210693612</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.87250110427652583</c:v>
+                  <c:v>0.9356696945957762</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.6433115433684959</c:v>
+                  <c:v>0.62100694615662333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.17949293800749225</c:v>
+                  <c:v>-1.6907682548285163</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.96237685573344323</c:v>
+                  <c:v>-0.38713007314149567</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.3085236423674873</c:v>
+                  <c:v>0.36762243978894971</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.71019095255208198</c:v>
+                  <c:v>1.0020721653217279</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.88207094803599384</c:v>
+                  <c:v>0.85897098522271265</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.0821430161400123</c:v>
+                  <c:v>-0.32508660485293628</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-4.2785539205622532E-3</c:v>
+                  <c:v>-0.61365734204799705</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.12040591723010211</c:v>
+                  <c:v>2.1048860321636709</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.89887737725361971</c:v>
+                  <c:v>-2.2863426682558177</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.11524177987399845</c:v>
+                  <c:v>1.2259994596217991</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.51296054193697782</c:v>
+                  <c:v>1.3131113734800104</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.50844849929695368</c:v>
+                  <c:v>1.4875641901334316</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.5089949566006273</c:v>
+                  <c:v>0.46208249367447746</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-2.3724424476350454</c:v>
+                  <c:v>-1.7658784454981444</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.1698602480227387</c:v>
+                  <c:v>0.97121777385431907</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.1460229338374041E-2</c:v>
+                  <c:v>-0.47148898938385986</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.1134257495557673</c:v>
+                  <c:v>-0.1297742730599</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.83589723745135847</c:v>
+                  <c:v>-0.14030262210726774</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.89727588032966998</c:v>
+                  <c:v>0.46875052321909838</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.7226314096886859</c:v>
+                  <c:v>-1.3438339010536011</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.79286764481014804</c:v>
+                  <c:v>-1.0429708543688563</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.92030458895684153</c:v>
+                  <c:v>0.7578150495167193</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1433128113881215</c:v>
+                  <c:v>2.3575235793620513</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.20041628418482454</c:v>
+                  <c:v>1.4154031567265746</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.6782737447824148</c:v>
+                  <c:v>-2.6810112438234635</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.693993909095254</c:v>
+                  <c:v>-1.4576622776813921</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.16608152965745948</c:v>
+                  <c:v>-0.38314359968126255</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1.9147552965543113</c:v>
+                  <c:v>-0.73959494232463063</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.1996948050600553</c:v>
+                  <c:v>-0.40963648671890152</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.91560934125092641</c:v>
+                  <c:v>-1.7106960198383834</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.59543539074038576</c:v>
+                  <c:v>-0.56835534365142559</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-1.3812785547347501</c:v>
+                  <c:v>-1.0787331678118368</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.0367232881297688</c:v>
+                  <c:v>1.6460677349695685</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.43076833446911561</c:v>
+                  <c:v>0.79594898521228896</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.57461925999865593</c:v>
+                  <c:v>0.17282458103237613</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.36086621572132804</c:v>
+                  <c:v>-0.7399390111421178</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.9417078345125196</c:v>
+                  <c:v>2.9230493490973088E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.55821695591541409</c:v>
+                  <c:v>-0.10418535661911749</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.83219809480658025</c:v>
+                  <c:v>0.64428365858370429</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.15107791337426063</c:v>
+                  <c:v>-0.29537037591060278</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.80179580382791238</c:v>
+                  <c:v>0.71231414868178655</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.72674741721111857</c:v>
+                  <c:v>0.67558058201866711</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.67012691711177441</c:v>
+                  <c:v>6.529074851591707E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.7097814858444151</c:v>
+                  <c:v>-1.4996543892923455</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.3734634429898107</c:v>
+                  <c:v>-0.76138365933370111</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-1.0456626280740231</c:v>
+                  <c:v>-1.8465120310965411E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.13410654815145515</c:v>
+                  <c:v>-0.75681084545094568</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.58514179443427083</c:v>
+                  <c:v>-4.9199763369872015E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.42054844674259356</c:v>
+                  <c:v>1.0143003095392009</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.23804045349072447</c:v>
+                  <c:v>0.24527985353933335</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.29846832037997706</c:v>
+                  <c:v>0.15812698636304678</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.31996272397898429</c:v>
+                  <c:v>-1.4442136051590133</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.65028106364139</c:v>
+                  <c:v>-0.81428422593705296</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.91390689347973153</c:v>
+                  <c:v>-9.1267377913660562E-5</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.34571192423835023</c:v>
+                  <c:v>0.83285197015230428</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.2024668800541582</c:v>
+                  <c:v>1.349812250807612</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.1356854992894416</c:v>
+                  <c:v>0.94565132030250809</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.28022451641739893</c:v>
+                  <c:v>-0.14193200015716803</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.27963444590011721</c:v>
+                  <c:v>-1.3517381445570169</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-1.4308685649915049</c:v>
+                  <c:v>0.5052488839060445</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.20940855052305105</c:v>
+                  <c:v>0.52441216839336047</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.35351085388268355</c:v>
+                  <c:v>-1.1544338608136262</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-1.265032135492679</c:v>
+                  <c:v>-1.2017735596729222</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.71825306230571706</c:v>
+                  <c:v>-0.33159431968884673</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.15266776182443986</c:v>
+                  <c:v>-0.10629609093633169</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-8.4444392035221832E-2</c:v>
+                  <c:v>0.16470772579239359</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.54294725256088949</c:v>
+                  <c:v>1.1244617252066829</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-1.0067781823927773</c:v>
+                  <c:v>-0.92819712492372985</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.75926510233586331</c:v>
+                  <c:v>1.5172639601551945</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.54628201751317851</c:v>
+                  <c:v>-1.083651011015023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -689,304 +689,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-0.12963328355580683</c:v>
+                  <c:v>0.22061081639376612</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86952685393549611</c:v>
+                  <c:v>1.5024600032586406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1796930704408159</c:v>
+                  <c:v>-1.4753070883918702</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.873599413216235</c:v>
+                  <c:v>1.8682684290603322</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.45469668486469556</c:v>
+                  <c:v>1.9112977780185774</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.2111398935255924</c:v>
+                  <c:v>1.9200323455343673</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.31127942170851397</c:v>
+                  <c:v>2.2530298776609694</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24907298031011565</c:v>
+                  <c:v>0.30649833150886446</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.746009985844331</c:v>
+                  <c:v>-1.13176847560185</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6717194666558606</c:v>
+                  <c:v>-2.0122473076558007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-7.4429939246600463E-2</c:v>
+                  <c:v>1.3234492159806934</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.85880449135335535</c:v>
+                  <c:v>2.7041989205804109</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.8049453190925751</c:v>
+                  <c:v>9.4537135539899272E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.9362685975920639</c:v>
+                  <c:v>-0.54033505580287078</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3030369113507332</c:v>
+                  <c:v>-1.7610234472533477</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.9208881252315875</c:v>
+                  <c:v>-0.24241926347151993</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.46691299412298515</c:v>
+                  <c:v>-1.0288822139404221</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.18471075118667796</c:v>
+                  <c:v>0.35783307627316974</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.85861825928441238</c:v>
+                  <c:v>0.94113169686209663</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.300922633452906</c:v>
+                  <c:v>0.47060273920438422</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1635163279066556</c:v>
+                  <c:v>0.4702067779520176</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-3.1295208768692389</c:v>
+                  <c:v>-1.2187059104811031</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0441577786476808</c:v>
+                  <c:v>-0.47030098983575386</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.472145046772054</c:v>
+                  <c:v>2.0932456672822091</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0217454582169633E-2</c:v>
+                  <c:v>-1.7958995180312056</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4537457124188666</c:v>
+                  <c:v>-6.8411632853611959E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.7823890243915067</c:v>
+                  <c:v>0.19380568505293483</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.3281287167511424</c:v>
+                  <c:v>-1.0407375319554248</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.42452159074244394</c:v>
+                  <c:v>0.96863099521055351</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0274070125243049</c:v>
+                  <c:v>-1.672599664446174</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.88849564963367245</c:v>
+                  <c:v>1.0048570245051258</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.8915835054734198E-2</c:v>
+                  <c:v>-0.77461184704036246</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.0192079703986616</c:v>
+                  <c:v>-2.0144589526275656</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.4391656071759942</c:v>
+                  <c:v>0.3408090292552699</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.452252385079527</c:v>
+                  <c:v>-0.29583139243087486</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.6280182212619092</c:v>
+                  <c:v>-0.51687025768344508</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.86554245348997327</c:v>
+                  <c:v>0.78818000819631273</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.34072046546856272</c:v>
+                  <c:v>-3.5742661356230654</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.58229553588204763</c:v>
+                  <c:v>1.7161302249400396</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.12919716619723728</c:v>
+                  <c:v>-1.9219471040721035</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.26948369152637408</c:v>
+                  <c:v>0.40835211365846091</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.8423580631494387E-2</c:v>
+                  <c:v>-1.1513745288045278</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.4245089761846681</c:v>
+                  <c:v>-1.4449355838433922</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.6595249343688594</c:v>
+                  <c:v>1.0900810979962112</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.93802094238087619</c:v>
+                  <c:v>-2.2675391703923999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.33697874784653803</c:v>
+                  <c:v>0.31777769878642487</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2313105072375341</c:v>
+                  <c:v>0.15855774977942608</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.4639831468197899</c:v>
+                  <c:v>-1.8424516043236685</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.16363442537969386</c:v>
+                  <c:v>-1.3607256233815042</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-1.5769375695568046</c:v>
+                  <c:v>2.9081444093866073</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.43987107526133784</c:v>
+                  <c:v>1.248153905391004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-2.6013845450774453</c:v>
+                  <c:v>-2.325019006816476</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-1.7601057878775395</c:v>
+                  <c:v>-3.4057988106586832</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.1957430771401232</c:v>
+                  <c:v>-3.0580124580943679</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-2.8105318886328563</c:v>
+                  <c:v>3.0052499432067998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-2.3789533610564098</c:v>
+                  <c:v>2.1957105037231623</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.65584250410557243</c:v>
+                  <c:v>-0.70895141484944435</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.2755153363912166</c:v>
+                  <c:v>1.3665055468193905</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1.0899547674720722</c:v>
+                  <c:v>0.34410018052163149</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.8835275118936101</c:v>
+                  <c:v>2.8768313280545978</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.77763442483581668</c:v>
+                  <c:v>-0.69222166761713633</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.2238155429994566</c:v>
+                  <c:v>0.34238724742201809</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.2995518072551067</c:v>
+                  <c:v>-2.8929948084769999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-1.2989045186763457</c:v>
+                  <c:v>-1.3678287809247647</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-1.0945335608554434</c:v>
+                  <c:v>0.54214423516248567</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-1.1558438092742667</c:v>
+                  <c:v>1.4944861944415453</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.9649539660751737</c:v>
+                  <c:v>-0.2652637006005365</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.2083787063399165</c:v>
+                  <c:v>2.2634283965178557</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.3187503652260069E-2</c:v>
+                  <c:v>-2.3621031650697177E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.35463563399263193</c:v>
+                  <c:v>0.32577246306723179</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.3033855881703147</c:v>
+                  <c:v>-0.49451835862910221</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.66336776068156578</c:v>
+                  <c:v>2.2445707986770369E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.5793214139620454</c:v>
+                  <c:v>-1.4946855698713788</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-2.457201774734219</c:v>
+                  <c:v>0.96946834648378222</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-2.2019411466459262</c:v>
+                  <c:v>0.46378893557965761</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.2648761736073595</c:v>
+                  <c:v>0.50653367748721445</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.81127366923808197</c:v>
+                  <c:v>1.2447742155058312</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.7665650740475175</c:v>
+                  <c:v>-0.67272202073838394</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.45859285281838924</c:v>
+                  <c:v>-0.66897514080230369</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.7790970248783846</c:v>
+                  <c:v>0.52153391997479304</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-2.1716271165265137</c:v>
+                  <c:v>-8.5654877119618889E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-1.1114679721875977</c:v>
+                  <c:v>1.4399107742134958</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-2.5833597385198201</c:v>
+                  <c:v>1.8104031417507525</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.68807394049488235</c:v>
+                  <c:v>-1.2564214321396419</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.31086611631120037</c:v>
+                  <c:v>0.36100279560207627</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.4095570088459366</c:v>
+                  <c:v>-1.2808370220419301</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.1407954139145573</c:v>
+                  <c:v>-0.14707383572277466</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.30917102608353653</c:v>
+                  <c:v>-1.5804372276116632</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.72342496121881572</c:v>
+                  <c:v>0.48432939961027743</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.6188889626636094</c:v>
+                  <c:v>-1.4049079348520099</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.2566249869979092</c:v>
+                  <c:v>0.91992773591119703</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.77715204729882492</c:v>
+                  <c:v>0.79975673500896693</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.2361675097317972</c:v>
+                  <c:v>1.5999891365128343</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.30631200624556576</c:v>
+                  <c:v>-0.59953445145630124</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.11894492540546781</c:v>
+                  <c:v>-8.958103292616354E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.9482269848199123</c:v>
+                  <c:v>-0.14031967257193992</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.59827736828750833</c:v>
+                  <c:v>-1.6992467820128039</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.10358763910243551</c:v>
+                  <c:v>1.3000921036867041</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.5697931897035944</c:v>
+                  <c:v>-1.1017413861625709</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.66864746911277262</c:v>
+                  <c:v>1.4667856272141222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,304 +1258,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-0.75507011011283076</c:v>
+                  <c:v>0.51106172320775922</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.1940699383693243</c:v>
+                  <c:v>-2.0604042600324708</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.177695974229388E-2</c:v>
+                  <c:v>0.92035845749087797</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7997668222085266</c:v>
+                  <c:v>-1.4289821155946405</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8406099152977905</c:v>
+                  <c:v>-1.6308449934955633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1607508794362784</c:v>
+                  <c:v>-1.4440124958056868</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.15906321431147355</c:v>
+                  <c:v>-0.4698502981257725</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.68100779859664573</c:v>
+                  <c:v>0.47088120723859567</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.89175559817508143</c:v>
+                  <c:v>-0.17401472660061168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.8054034451246395</c:v>
+                  <c:v>1.0605589349137572</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2572871071375184</c:v>
+                  <c:v>-1.1251106617943119</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.8053464593428477</c:v>
+                  <c:v>-1.4326757959567615</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99658164707004437</c:v>
+                  <c:v>-0.19521518161919463</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5801056508277735</c:v>
+                  <c:v>0.5651193265304495</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.885921627899307</c:v>
+                  <c:v>1.7943429666293347</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7484308450519577</c:v>
+                  <c:v>0.22213758714556311</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.23172615067575386</c:v>
+                  <c:v>0.75064700479891255</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.35371956542182065</c:v>
+                  <c:v>-1.0169171951907423</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.50274795462617616</c:v>
+                  <c:v>1.1959668078130974</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.85145816416487807</c:v>
+                  <c:v>0.50932917208742012</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.15090969174184141</c:v>
+                  <c:v>-1.0264252607756268</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0514702167728553</c:v>
+                  <c:v>1.2318042077320153</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.7194872084875557</c:v>
+                  <c:v>0.54039368910530194</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.67636640672112236</c:v>
+                  <c:v>-1.5482189139363509</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.15031222781521311</c:v>
+                  <c:v>1.2387647254719836</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.6245678301232827</c:v>
+                  <c:v>1.2460990147414646</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0529266493596649E-2</c:v>
+                  <c:v>1.0116234222422553</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.23384782902966461</c:v>
+                  <c:v>0.1854285210693612</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.87250110427652583</c:v>
+                  <c:v>0.9356696945957762</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.6433115433684959</c:v>
+                  <c:v>0.62100694615662333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.17949293800749225</c:v>
+                  <c:v>-1.6907682548285163</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.96237685573344323</c:v>
+                  <c:v>-0.38713007314149567</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.3085236423674873</c:v>
+                  <c:v>0.36762243978894971</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.71019095255208198</c:v>
+                  <c:v>1.0020721653217279</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.88207094803599384</c:v>
+                  <c:v>0.85897098522271265</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.0821430161400123</c:v>
+                  <c:v>-0.32508660485293628</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-4.2785539205622532E-3</c:v>
+                  <c:v>-0.61365734204799705</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.12040591723010211</c:v>
+                  <c:v>2.1048860321636709</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.89887737725361971</c:v>
+                  <c:v>-2.2863426682558177</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.11524177987399845</c:v>
+                  <c:v>1.2259994596217991</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.51296054193697782</c:v>
+                  <c:v>1.3131113734800104</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.50844849929695368</c:v>
+                  <c:v>1.4875641901334316</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.5089949566006273</c:v>
+                  <c:v>0.46208249367447746</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-2.3724424476350454</c:v>
+                  <c:v>-1.7658784454981444</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.1698602480227387</c:v>
+                  <c:v>0.97121777385431907</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.1460229338374041E-2</c:v>
+                  <c:v>-0.47148898938385986</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.1134257495557673</c:v>
+                  <c:v>-0.1297742730599</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.83589723745135847</c:v>
+                  <c:v>-0.14030262210726774</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.89727588032966998</c:v>
+                  <c:v>0.46875052321909838</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.7226314096886859</c:v>
+                  <c:v>-1.3438339010536011</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.79286764481014804</c:v>
+                  <c:v>-1.0429708543688563</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.92030458895684153</c:v>
+                  <c:v>0.7578150495167193</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1433128113881215</c:v>
+                  <c:v>2.3575235793620513</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.20041628418482454</c:v>
+                  <c:v>1.4154031567265746</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.6782737447824148</c:v>
+                  <c:v>-2.6810112438234635</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.693993909095254</c:v>
+                  <c:v>-1.4576622776813921</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.16608152965745948</c:v>
+                  <c:v>-0.38314359968126255</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1.9147552965543113</c:v>
+                  <c:v>-0.73959494232463063</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.1996948050600553</c:v>
+                  <c:v>-0.40963648671890152</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.91560934125092641</c:v>
+                  <c:v>-1.7106960198383834</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.59543539074038576</c:v>
+                  <c:v>-0.56835534365142559</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-1.3812785547347501</c:v>
+                  <c:v>-1.0787331678118368</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.0367232881297688</c:v>
+                  <c:v>1.6460677349695685</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.43076833446911561</c:v>
+                  <c:v>0.79594898521228896</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.57461925999865593</c:v>
+                  <c:v>0.17282458103237613</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.36086621572132804</c:v>
+                  <c:v>-0.7399390111421178</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.9417078345125196</c:v>
+                  <c:v>2.9230493490973088E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.55821695591541409</c:v>
+                  <c:v>-0.10418535661911749</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.83219809480658025</c:v>
+                  <c:v>0.64428365858370429</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.15107791337426063</c:v>
+                  <c:v>-0.29537037591060278</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.80179580382791238</c:v>
+                  <c:v>0.71231414868178655</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.72674741721111857</c:v>
+                  <c:v>0.67558058201866711</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.67012691711177441</c:v>
+                  <c:v>6.529074851591707E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.7097814858444151</c:v>
+                  <c:v>-1.4996543892923455</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.3734634429898107</c:v>
+                  <c:v>-0.76138365933370111</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-1.0456626280740231</c:v>
+                  <c:v>-1.8465120310965411E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.13410654815145515</c:v>
+                  <c:v>-0.75681084545094568</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.58514179443427083</c:v>
+                  <c:v>-4.9199763369872015E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.42054844674259356</c:v>
+                  <c:v>1.0143003095392009</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.23804045349072447</c:v>
+                  <c:v>0.24527985353933335</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.29846832037997706</c:v>
+                  <c:v>0.15812698636304678</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.31996272397898429</c:v>
+                  <c:v>-1.4442136051590133</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.65028106364139</c:v>
+                  <c:v>-0.81428422593705296</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.91390689347973153</c:v>
+                  <c:v>-9.1267377913660562E-5</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.34571192423835023</c:v>
+                  <c:v>0.83285197015230428</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.2024668800541582</c:v>
+                  <c:v>1.349812250807612</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.1356854992894416</c:v>
+                  <c:v>0.94565132030250809</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.28022451641739893</c:v>
+                  <c:v>-0.14193200015716803</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.27963444590011721</c:v>
+                  <c:v>-1.3517381445570169</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-1.4308685649915049</c:v>
+                  <c:v>0.5052488839060445</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.20940855052305105</c:v>
+                  <c:v>0.52441216839336047</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.35351085388268355</c:v>
+                  <c:v>-1.1544338608136262</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-1.265032135492679</c:v>
+                  <c:v>-1.2017735596729222</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.71825306230571706</c:v>
+                  <c:v>-0.33159431968884673</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.15266776182443986</c:v>
+                  <c:v>-0.10629609093633169</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-8.4444392035221832E-2</c:v>
+                  <c:v>0.16470772579239359</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.54294725256088949</c:v>
+                  <c:v>1.1244617252066829</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-1.0067781823927773</c:v>
+                  <c:v>-0.92819712492372985</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.75926510233586331</c:v>
+                  <c:v>1.5172639601551945</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.54628201751317851</c:v>
+                  <c:v>-1.083651011015023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1567,304 +1567,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-0.88470339366863759</c:v>
+                  <c:v>0.73167253960152534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.32454308443382812</c:v>
+                  <c:v>-0.5579442567738303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2514700301831099</c:v>
+                  <c:v>-0.55494863090099211</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.3832591007708448E-2</c:v>
+                  <c:v>0.43928631346569158</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38591323043309494</c:v>
+                  <c:v>0.28045278452301398</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.0503890140893142</c:v>
+                  <c:v>0.47601984972868056</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.47034263601998755</c:v>
+                  <c:v>1.7831795795351968</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.43193481828653008</c:v>
+                  <c:v>0.77737953874746013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.85425438766924966</c:v>
+                  <c:v>-1.3057832022024616</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.1336839784687788</c:v>
+                  <c:v>-0.95168837274204376</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18285716789091794</c:v>
+                  <c:v>0.19833855418638158</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.94654196798949231</c:v>
+                  <c:v>1.2715231246236491</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.80836367202253057</c:v>
+                  <c:v>-0.10067804607929536</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.3561629467642906</c:v>
+                  <c:v>2.478427072757872E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.41711528345142612</c:v>
+                  <c:v>3.3319519375987053E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.1724572801796298</c:v>
+                  <c:v>-2.0281676325956816E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.23518684344723131</c:v>
+                  <c:v>-0.27823520914150968</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.5384303166084986</c:v>
+                  <c:v>-0.65908411891757257</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.35587030465823621</c:v>
+                  <c:v>2.137098504675194</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4494644692880279</c:v>
+                  <c:v>0.97993191129180435</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3144260196484969</c:v>
+                  <c:v>-0.55621848282360919</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.0780506600963835</c:v>
+                  <c:v>1.3098297250912178E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3246705701601253</c:v>
+                  <c:v>7.0092699269548059E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.79577864005093168</c:v>
+                  <c:v>0.54502675334585815</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.16052968239738274</c:v>
+                  <c:v>-0.55713479255922205</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.17082211770441597</c:v>
+                  <c:v>1.1776873818878526</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.75185975789791004</c:v>
+                  <c:v>1.2054291072951901</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.5619765457808072</c:v>
+                  <c:v>-0.8553090108860637</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.44797951353408189</c:v>
+                  <c:v>1.9043006898063297</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.61590453084419106</c:v>
+                  <c:v>-1.0515927182895508</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.70900271162618023</c:v>
+                  <c:v>-0.68591123032339063</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.89346102067870903</c:v>
+                  <c:v>-1.1617419201818582</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.7106843280311745</c:v>
+                  <c:v>-1.6468365128386158</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.7289746546239122</c:v>
+                  <c:v>1.3428811945769978</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.57018143704353319</c:v>
+                  <c:v>0.56313959279183778</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.54587520512189691</c:v>
+                  <c:v>-0.84195686253638136</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.86126389956941107</c:v>
+                  <c:v>0.17452266614831566</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.22031454823846058</c:v>
+                  <c:v>-1.4693801034593945</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.31658184137157203</c:v>
+                  <c:v>-0.57021244331577792</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.24443894607123573</c:v>
+                  <c:v>-0.69594764445030433</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.24347685041060371</c:v>
+                  <c:v>1.7214634871384713</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.45002491866545929</c:v>
+                  <c:v>0.33618966132890366</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0844859804159592</c:v>
+                  <c:v>-0.98285309016891476</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.28708248673381392</c:v>
+                  <c:v>-0.6757973475019331</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.2318393056418625</c:v>
+                  <c:v>-1.2963213965380811</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.42843897718491208</c:v>
+                  <c:v>-0.15371129059743499</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.3447362567933014</c:v>
+                  <c:v>2.8783476719526087E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.62808590936843156</c:v>
+                  <c:v>-1.9827542264309361</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.0609103057093638</c:v>
+                  <c:v>-0.89197510016240589</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.14569384013188119</c:v>
+                  <c:v>1.5643105083330064</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.3529965695488102</c:v>
+                  <c:v>0.20518305102214776</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-1.6810799561206038</c:v>
+                  <c:v>-1.5672039572997567</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.61679297648941811</c:v>
+                  <c:v>-1.0482752312966317</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.99532679295529869</c:v>
+                  <c:v>-1.6426093013677934</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-1.1322581438504418</c:v>
+                  <c:v>0.32423869938333622</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.6849594519611556</c:v>
+                  <c:v>0.73804822604177023</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.4897609744481129</c:v>
+                  <c:v>-1.0920950145307069</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.36076003983690508</c:v>
+                  <c:v>0.62691060449475988</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.10974003758798311</c:v>
+                  <c:v>-6.5536306197270036E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.9679181706426836</c:v>
+                  <c:v>1.1661353082162145</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.18219903409543095</c:v>
+                  <c:v>-1.2605770112685619</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.84253698826470635</c:v>
+                  <c:v>-0.73634592038981872</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.26282851912533783</c:v>
+                  <c:v>-1.2469270735074316</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.86813618420723004</c:v>
+                  <c:v>-0.57187979571247571</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-1.6691528208540993</c:v>
+                  <c:v>0.71496881619486186</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.79497759355293862</c:v>
+                  <c:v>0.75454718329942749</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-2.3246131562654052E-2</c:v>
+                  <c:v>-0.23603320710956341</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.7665956622553307</c:v>
+                  <c:v>2.1592430398987381</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.84538559845884031</c:v>
+                  <c:v>0.62066262693300711</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.50571354736689256</c:v>
+                  <c:v>3.0402087156628989E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.5015897843424022</c:v>
+                  <c:v>0.21779579005268437</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.3379656529552811E-2</c:v>
+                  <c:v>0.69802629000543748</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>9.0805503149729044E-2</c:v>
+                  <c:v>-1.4881564950197872</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.74742028888980372</c:v>
+                  <c:v>-0.5301860428085633</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.82847770365611528</c:v>
+                  <c:v>-0.2975947237540435</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.2192135455333363</c:v>
+                  <c:v>0.48806855717624903</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.6771671210866268</c:v>
+                  <c:v>0.4879633700548856</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.18142327961324664</c:v>
+                  <c:v>-0.72192178410825592</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.8044406075795699E-2</c:v>
+                  <c:v>0.34532516873689717</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.5410565713876601</c:v>
+                  <c:v>0.76681377351412638</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-1.8731587961465366</c:v>
+                  <c:v>7.2472109243427896E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-1.4314306961665821</c:v>
+                  <c:v>-4.3028309455176265E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.93307867487843021</c:v>
+                  <c:v>0.99611891581369938</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.22583295298484918</c:v>
+                  <c:v>-1.2565126995175555</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.4845807927149877E-2</c:v>
+                  <c:v>1.1938547657543805</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.20709012879177843</c:v>
+                  <c:v>6.8975228765681879E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.1099146251155983E-3</c:v>
+                  <c:v>0.79857748457973343</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-2.8946509666137623E-2</c:v>
+                  <c:v>-1.7223692277688312</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.0030594071189329</c:v>
+                  <c:v>-0.86740874494673947</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.18802039767210435</c:v>
+                  <c:v>-0.89965905094596543</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-4.7216436474858174E-2</c:v>
+                  <c:v>1.4443399043045575</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.42364119341614132</c:v>
+                  <c:v>-0.35467712580465921</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-2.8864625760881679E-2</c:v>
+                  <c:v>0.39821557683991216</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-1.0245650685512828</c:v>
+                  <c:v>-0.93112877114514792</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.27161268722990767</c:v>
+                  <c:v>-0.19587712386249523</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.86378259278469049</c:v>
+                  <c:v>2.4388053220453666E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-5.5330115726618882E-2</c:v>
+                  <c:v>-0.57478505680612091</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-0.90319054329034176</c:v>
+                  <c:v>0.37189497876297428</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.81052808736773096</c:v>
+                  <c:v>0.41552257399262371</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.12236545159959412</c:v>
+                  <c:v>0.38313461619909905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2136,304 +2136,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-0.75507011011283076</c:v>
+                  <c:v>0.51106172320775922</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.1940699383693243</c:v>
+                  <c:v>-2.0604042600324708</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.177695974229388E-2</c:v>
+                  <c:v>0.92035845749087797</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7997668222085266</c:v>
+                  <c:v>-1.4289821155946405</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8406099152977905</c:v>
+                  <c:v>-1.6308449934955633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1607508794362784</c:v>
+                  <c:v>-1.4440124958056868</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.15906321431147355</c:v>
+                  <c:v>-0.4698502981257725</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.68100779859664573</c:v>
+                  <c:v>0.47088120723859567</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.89175559817508143</c:v>
+                  <c:v>-0.17401472660061168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.8054034451246395</c:v>
+                  <c:v>1.0605589349137572</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2572871071375184</c:v>
+                  <c:v>-1.1251106617943119</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.8053464593428477</c:v>
+                  <c:v>-1.4326757959567615</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99658164707004437</c:v>
+                  <c:v>-0.19521518161919463</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5801056508277735</c:v>
+                  <c:v>0.5651193265304495</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.885921627899307</c:v>
+                  <c:v>1.7943429666293347</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7484308450519577</c:v>
+                  <c:v>0.22213758714556311</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.23172615067575386</c:v>
+                  <c:v>0.75064700479891255</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.35371956542182065</c:v>
+                  <c:v>-1.0169171951907423</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.50274795462617616</c:v>
+                  <c:v>1.1959668078130974</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.85145816416487807</c:v>
+                  <c:v>0.50932917208742012</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.15090969174184141</c:v>
+                  <c:v>-1.0264252607756268</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0514702167728553</c:v>
+                  <c:v>1.2318042077320153</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.7194872084875557</c:v>
+                  <c:v>0.54039368910530194</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.67636640672112236</c:v>
+                  <c:v>-1.5482189139363509</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.15031222781521311</c:v>
+                  <c:v>1.2387647254719836</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.6245678301232827</c:v>
+                  <c:v>1.2460990147414646</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0529266493596649E-2</c:v>
+                  <c:v>1.0116234222422553</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.23384782902966461</c:v>
+                  <c:v>0.1854285210693612</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.87250110427652583</c:v>
+                  <c:v>0.9356696945957762</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.6433115433684959</c:v>
+                  <c:v>0.62100694615662333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.17949293800749225</c:v>
+                  <c:v>-1.6907682548285163</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.96237685573344323</c:v>
+                  <c:v>-0.38713007314149567</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.3085236423674873</c:v>
+                  <c:v>0.36762243978894971</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.71019095255208198</c:v>
+                  <c:v>1.0020721653217279</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.88207094803599384</c:v>
+                  <c:v>0.85897098522271265</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.0821430161400123</c:v>
+                  <c:v>-0.32508660485293628</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-4.2785539205622532E-3</c:v>
+                  <c:v>-0.61365734204799705</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.12040591723010211</c:v>
+                  <c:v>2.1048860321636709</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.89887737725361971</c:v>
+                  <c:v>-2.2863426682558177</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.11524177987399845</c:v>
+                  <c:v>1.2259994596217991</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.51296054193697782</c:v>
+                  <c:v>1.3131113734800104</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.50844849929695368</c:v>
+                  <c:v>1.4875641901334316</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.5089949566006273</c:v>
+                  <c:v>0.46208249367447746</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-2.3724424476350454</c:v>
+                  <c:v>-1.7658784454981444</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.1698602480227387</c:v>
+                  <c:v>0.97121777385431907</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.1460229338374041E-2</c:v>
+                  <c:v>-0.47148898938385986</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.1134257495557673</c:v>
+                  <c:v>-0.1297742730599</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.83589723745135847</c:v>
+                  <c:v>-0.14030262210726774</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.89727588032966998</c:v>
+                  <c:v>0.46875052321909838</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.7226314096886859</c:v>
+                  <c:v>-1.3438339010536011</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.79286764481014804</c:v>
+                  <c:v>-1.0429708543688563</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.92030458895684153</c:v>
+                  <c:v>0.7578150495167193</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1433128113881215</c:v>
+                  <c:v>2.3575235793620513</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.20041628418482454</c:v>
+                  <c:v>1.4154031567265746</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.6782737447824148</c:v>
+                  <c:v>-2.6810112438234635</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.693993909095254</c:v>
+                  <c:v>-1.4576622776813921</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.16608152965745948</c:v>
+                  <c:v>-0.38314359968126255</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1.9147552965543113</c:v>
+                  <c:v>-0.73959494232463063</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.1996948050600553</c:v>
+                  <c:v>-0.40963648671890152</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.91560934125092641</c:v>
+                  <c:v>-1.7106960198383834</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.59543539074038576</c:v>
+                  <c:v>-0.56835534365142559</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-1.3812785547347501</c:v>
+                  <c:v>-1.0787331678118368</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.0367232881297688</c:v>
+                  <c:v>1.6460677349695685</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.43076833446911561</c:v>
+                  <c:v>0.79594898521228896</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.57461925999865593</c:v>
+                  <c:v>0.17282458103237613</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.36086621572132804</c:v>
+                  <c:v>-0.7399390111421178</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.9417078345125196</c:v>
+                  <c:v>2.9230493490973088E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.55821695591541409</c:v>
+                  <c:v>-0.10418535661911749</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.83219809480658025</c:v>
+                  <c:v>0.64428365858370429</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.15107791337426063</c:v>
+                  <c:v>-0.29537037591060278</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.80179580382791238</c:v>
+                  <c:v>0.71231414868178655</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.72674741721111857</c:v>
+                  <c:v>0.67558058201866711</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.67012691711177441</c:v>
+                  <c:v>6.529074851591707E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.7097814858444151</c:v>
+                  <c:v>-1.4996543892923455</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.3734634429898107</c:v>
+                  <c:v>-0.76138365933370111</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-1.0456626280740231</c:v>
+                  <c:v>-1.8465120310965411E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.13410654815145515</c:v>
+                  <c:v>-0.75681084545094568</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.58514179443427083</c:v>
+                  <c:v>-4.9199763369872015E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.42054844674259356</c:v>
+                  <c:v>1.0143003095392009</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.23804045349072447</c:v>
+                  <c:v>0.24527985353933335</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.29846832037997706</c:v>
+                  <c:v>0.15812698636304678</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.31996272397898429</c:v>
+                  <c:v>-1.4442136051590133</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.65028106364139</c:v>
+                  <c:v>-0.81428422593705296</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.91390689347973153</c:v>
+                  <c:v>-9.1267377913660562E-5</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.34571192423835023</c:v>
+                  <c:v>0.83285197015230428</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.2024668800541582</c:v>
+                  <c:v>1.349812250807612</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.1356854992894416</c:v>
+                  <c:v>0.94565132030250809</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.28022451641739893</c:v>
+                  <c:v>-0.14193200015716803</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.27963444590011721</c:v>
+                  <c:v>-1.3517381445570169</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-1.4308685649915049</c:v>
+                  <c:v>0.5052488839060445</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.20940855052305105</c:v>
+                  <c:v>0.52441216839336047</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.35351085388268355</c:v>
+                  <c:v>-1.1544338608136262</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-1.265032135492679</c:v>
+                  <c:v>-1.2017735596729222</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.71825306230571706</c:v>
+                  <c:v>-0.33159431968884673</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.15266776182443986</c:v>
+                  <c:v>-0.10629609093633169</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-8.4444392035221832E-2</c:v>
+                  <c:v>0.16470772579239359</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.54294725256088949</c:v>
+                  <c:v>1.1244617252066829</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-1.0067781823927773</c:v>
+                  <c:v>-0.92819712492372985</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.75926510233586331</c:v>
+                  <c:v>1.5172639601551945</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.54628201751317851</c:v>
+                  <c:v>-1.083651011015023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2445,304 +2445,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-1.6397735037814685</c:v>
+                  <c:v>1.2427342628092846</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.5186130228031525</c:v>
+                  <c:v>-2.618348516806301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3232469899254038</c:v>
+                  <c:v>0.36540982658988586</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7259342312008181</c:v>
+                  <c:v>-0.98969580212894892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2265231457308854</c:v>
+                  <c:v>-1.3503922089725493</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11036186534696424</c:v>
+                  <c:v>-0.9679926460770063</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.62940585033146113</c:v>
+                  <c:v>1.3133292814094242</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.1129426168831758</c:v>
+                  <c:v>1.2482607459860557</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7501210505831772E-2</c:v>
+                  <c:v>-1.4797979288030731</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.9390874235934183</c:v>
+                  <c:v>0.10887056217171343</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44014427502843634</c:v>
+                  <c:v>-0.92677210760793027</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.7518884273323398</c:v>
+                  <c:v>-0.1611526713331124</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.18821797504751381</c:v>
+                  <c:v>-0.29589322769848997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.22394270406348293</c:v>
+                  <c:v>0.58990359725802821</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.4688063444478807</c:v>
+                  <c:v>1.8276624860053217</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5759735648723279</c:v>
+                  <c:v>0.2018559108196063</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.4606927714774527E-3</c:v>
+                  <c:v>0.47241179565740288</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.89214988203031931</c:v>
+                  <c:v>-1.6760013141083148</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.14687764996793995</c:v>
+                  <c:v>3.3330653124882916</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.59800630512314978</c:v>
+                  <c:v>1.4892610833792244</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4653357113903382</c:v>
+                  <c:v>-1.582643743599236</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97341955667647184</c:v>
+                  <c:v>1.2449025049829274</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.3948166383274303</c:v>
+                  <c:v>0.61048638837485003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.11941223332980933</c:v>
+                  <c:v>-1.0031921605904928</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.31084191021259588</c:v>
+                  <c:v>0.68162993291276153</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.7953899478276987</c:v>
+                  <c:v>2.4237863966293172</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.72133049140431338</c:v>
+                  <c:v>2.2170525295374457</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7958243748104721</c:v>
+                  <c:v>-0.66988048981670256</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3204806178106077</c:v>
+                  <c:v>2.8399703844021058</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2.259216074212687</c:v>
+                  <c:v>-0.43058577213292748</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.52950977361868801</c:v>
+                  <c:v>-2.3766794851519069</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.8558378764121524</c:v>
+                  <c:v>-1.5488719933233539</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.40216068566368723</c:v>
+                  <c:v>-1.2792140730496659</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.8783702071830222E-2</c:v>
+                  <c:v>2.3449533598987258</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.31188951099246065</c:v>
+                  <c:v>1.4221105780145504</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.53626781101811538</c:v>
+                  <c:v>-1.1670434673893175</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.85698534564884887</c:v>
+                  <c:v>-0.43913467589968136</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.9908631008358478E-2</c:v>
+                  <c:v>0.63550592870427636</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2154592186251918</c:v>
+                  <c:v>-2.8565551115715957</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.35968072594523415</c:v>
+                  <c:v>0.5300518151714948</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.75643739234758156</c:v>
+                  <c:v>3.0345748606184815</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.95847341796241303</c:v>
+                  <c:v>1.8237538514623353</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.5934809370165866</c:v>
+                  <c:v>-0.52077059649443735</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-2.0853599609012314</c:v>
+                  <c:v>-2.4416757930000776</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.4016995536646011</c:v>
+                  <c:v>-0.32510362268376203</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.51989920652328614</c:v>
+                  <c:v>-0.62520027998129479</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.4581620063490686</c:v>
+                  <c:v>-0.10099079634037392</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.2078113280829269</c:v>
+                  <c:v>-2.1230568485382038</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.9581861860390339</c:v>
+                  <c:v>-0.42322457694330751</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.8683252498205671</c:v>
+                  <c:v>0.22047660727940532</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.1458642143589581</c:v>
+                  <c:v>-0.83778780334670855</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.76077536716376226</c:v>
+                  <c:v>-0.8093889077830374</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.52651983489870335</c:v>
+                  <c:v>1.3092483480654196</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.7949105087704742</c:v>
+                  <c:v>-0.2272061446412188</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.54601560093197299</c:v>
+                  <c:v>-2.3567725444401271</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.0090344571340983</c:v>
+                  <c:v>-0.71961405163962189</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.32367944479065341</c:v>
+                  <c:v>-1.4752386142119693</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1.5539952567174062</c:v>
+                  <c:v>-0.11268433782987075</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.3094348426480384</c:v>
+                  <c:v>-0.47517279291617154</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-5.2308829391757183E-2</c:v>
+                  <c:v>-0.5445607116221689</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.41323635664495484</c:v>
+                  <c:v>-1.8289323549199876</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.53874156647004379</c:v>
+                  <c:v>-1.8150790882016556</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.77389476900443088</c:v>
+                  <c:v>0.39914066146213689</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.43736784973811443</c:v>
+                  <c:v>0.22406918949981325</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-2.2437720808527555</c:v>
+                  <c:v>0.88779339722723805</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.43411137783161058</c:v>
+                  <c:v>1.4608172157309696E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.91846170294986551</c:v>
+                  <c:v>-0.20680271361859032</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.3248126181707449</c:v>
+                  <c:v>2.0550576832796206</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.6775836932654205</c:v>
+                  <c:v>1.2649462855167113</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.65679146074115313</c:v>
+                  <c:v>-0.26496828875397377</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.30020601948551018</c:v>
+                  <c:v>0.9301099387344709</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.79012707374067137</c:v>
+                  <c:v>1.3736068720241046</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.76093242026150343</c:v>
+                  <c:v>-1.4816274201681956</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.96236119695461142</c:v>
+                  <c:v>-2.0298404321009089</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.54498573933369543</c:v>
+                  <c:v>-1.0589783830877446</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.82644908254068683</c:v>
+                  <c:v>0.46960343686528361</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.54306057293517163</c:v>
+                  <c:v>-0.26884747539606008</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.40371851482102417</c:v>
+                  <c:v>-0.77112154747812789</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.38250404066679788</c:v>
+                  <c:v>1.3596254782760981</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.3030161178969355</c:v>
+                  <c:v>1.0120936270534597</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-1.5746904757665594</c:v>
+                  <c:v>0.23059909560647468</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-1.7513934201455665</c:v>
+                  <c:v>-1.4485164361045308</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.71720238876295983</c:v>
+                  <c:v>0.18183468987664642</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.1397398464645807</c:v>
+                  <c:v>-1.2566039668954692</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.3805577321655001</c:v>
+                  <c:v>2.0267067359066848</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.99537675126237979</c:v>
+                  <c:v>1.418787479573294</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.1305755846643259</c:v>
+                  <c:v>1.7442288048822414</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.25127800675126133</c:v>
+                  <c:v>-1.8643012279259992</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.2826938530190501</c:v>
+                  <c:v>-2.2191468895037563</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-1.2428481673194005</c:v>
+                  <c:v>-0.39441016703992093</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.16219211404819286</c:v>
+                  <c:v>1.968752072697918</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7.0130339533457764E-2</c:v>
+                  <c:v>-1.5091109866182855</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-1.2938967612535608</c:v>
+                  <c:v>-0.80355798283301005</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-1.7428181308569999</c:v>
+                  <c:v>-1.2627230908339946</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.42428044905434753</c:v>
+                  <c:v>-0.30217321479882692</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.77933820074946869</c:v>
+                  <c:v>0.18909577901284727</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.4876171368342706</c:v>
+                  <c:v>0.54967666840056195</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-1.909968725683119</c:v>
+                  <c:v>-0.55630214616075557</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.1262985031867658E-2</c:v>
+                  <c:v>1.9327865341478181</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.4239165659135844</c:v>
+                  <c:v>-0.70051639481592398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5019,14 +5019,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A21CF2-F045-4933-8F09-4E42461A7DCE}">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -5040,7 +5042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -5063,7 +5065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -5080,2204 +5082,2204 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">_xlfn.NORM.INV(RAND(),0,1)</f>
-        <v>-0.75507011011283076</v>
+        <v>0.51106172320775922</v>
       </c>
       <c r="B5">
         <f ca="1">_xlfn.NORM.INV(RAND(),0,1)</f>
-        <v>-0.88470339366863759</v>
+        <v>0.73167253960152534</v>
       </c>
       <c r="C5">
-        <f ca="1">(C$2*$A5)+$B5</f>
-        <v>-0.12963328355580683</v>
+        <f t="shared" ref="C5:E24" ca="1" si="0">(C$2*$A5)+$B5</f>
+        <v>0.22061081639376612</v>
       </c>
       <c r="D5">
-        <f ca="1">(D$2*$A5)+$B5</f>
-        <v>-0.88470339366863759</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73167253960152534</v>
       </c>
       <c r="E5">
-        <f ca="1">(E$2*$A5)+$B5</f>
-        <v>-1.6397735037814685</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2427342628092846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" ref="A6:B69" ca="1" si="0">_xlfn.NORM.INV(RAND(),0,1)</f>
-        <v>-1.1940699383693243</v>
+        <f t="shared" ref="A6:B69" ca="1" si="1">_xlfn.NORM.INV(RAND(),0,1)</f>
+        <v>-2.0604042600324708</v>
       </c>
       <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.5579442567738303</v>
+      </c>
+      <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.32454308443382812</v>
-      </c>
-      <c r="C6">
-        <f ca="1">(C$2*$A6)+$B6</f>
-        <v>0.86952685393549611</v>
+        <v>1.5024600032586406</v>
       </c>
       <c r="D6">
-        <f ca="1">(D$2*$A6)+$B6</f>
-        <v>-0.32454308443382812</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.5579442567738303</v>
       </c>
       <c r="E6">
-        <f ca="1">(E$2*$A6)+$B6</f>
-        <v>-1.5186130228031525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.618348516806301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.92035845749087797</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.55494863090099211</v>
+      </c>
+      <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.177695974229388E-2</v>
-      </c>
-      <c r="B7">
+        <v>-1.4753070883918702</v>
+      </c>
+      <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2514700301831099</v>
-      </c>
-      <c r="C7">
-        <f ca="1">(C$2*$A7)+$B7</f>
-        <v>1.1796930704408159</v>
-      </c>
-      <c r="D7">
-        <f ca="1">(D$2*$A7)+$B7</f>
-        <v>1.2514700301831099</v>
+        <v>-0.55494863090099211</v>
       </c>
       <c r="E7">
-        <f ca="1">(E$2*$A7)+$B7</f>
-        <v>1.3232469899254038</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36540982658988586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.4289821155946405</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43928631346569158</v>
+      </c>
+      <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7997668222085266</v>
-      </c>
-      <c r="B8">
+        <v>1.8682684290603322</v>
+      </c>
+      <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.3832591007708448E-2</v>
-      </c>
-      <c r="C8">
-        <f ca="1">(C$2*$A8)+$B8</f>
-        <v>-1.873599413216235</v>
-      </c>
-      <c r="D8">
-        <f ca="1">(D$2*$A8)+$B8</f>
-        <v>-7.3832591007708448E-2</v>
+        <v>0.43928631346569158</v>
       </c>
       <c r="E8">
-        <f ca="1">(E$2*$A8)+$B8</f>
-        <v>1.7259342312008181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.98969580212894892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.6308449934955633</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28045278452301398</v>
+      </c>
+      <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8406099152977905</v>
-      </c>
-      <c r="B9">
+        <v>1.9112977780185774</v>
+      </c>
+      <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38591323043309494</v>
-      </c>
-      <c r="C9">
-        <f ca="1">(C$2*$A9)+$B9</f>
-        <v>-0.45469668486469556</v>
-      </c>
-      <c r="D9">
-        <f ca="1">(D$2*$A9)+$B9</f>
-        <v>0.38591323043309494</v>
+        <v>0.28045278452301398</v>
       </c>
       <c r="E9">
-        <f ca="1">(E$2*$A9)+$B9</f>
-        <v>1.2265231457308854</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.3503922089725493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.4440124958056868</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47601984972868056</v>
+      </c>
+      <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1607508794362784</v>
-      </c>
-      <c r="B10">
+        <v>1.9200323455343673</v>
+      </c>
+      <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0503890140893142</v>
-      </c>
-      <c r="C10">
-        <f ca="1">(C$2*$A10)+$B10</f>
-        <v>-2.2111398935255924</v>
-      </c>
-      <c r="D10">
-        <f ca="1">(D$2*$A10)+$B10</f>
-        <v>-1.0503890140893142</v>
+        <v>0.47601984972868056</v>
       </c>
       <c r="E10">
-        <f ca="1">(E$2*$A10)+$B10</f>
-        <v>0.11036186534696424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.9679926460770063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.4698502981257725</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7831795795351968</v>
+      </c>
+      <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.15906321431147355</v>
-      </c>
-      <c r="B11">
+        <v>2.2530298776609694</v>
+      </c>
+      <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.47034263601998755</v>
-      </c>
-      <c r="C11">
-        <f ca="1">(C$2*$A11)+$B11</f>
-        <v>-0.31127942170851397</v>
-      </c>
-      <c r="D11">
-        <f ca="1">(D$2*$A11)+$B11</f>
-        <v>-0.47034263601998755</v>
+        <v>1.7831795795351968</v>
       </c>
       <c r="E11">
-        <f ca="1">(E$2*$A11)+$B11</f>
-        <v>-0.62940585033146113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3133292814094242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47088120723859567</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.77737953874746013</v>
+      </c>
+      <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.68100779859664573</v>
-      </c>
-      <c r="B12">
+        <v>0.30649833150886446</v>
+      </c>
+      <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.43193481828653008</v>
-      </c>
-      <c r="C12">
-        <f ca="1">(C$2*$A12)+$B12</f>
-        <v>0.24907298031011565</v>
-      </c>
-      <c r="D12">
-        <f ca="1">(D$2*$A12)+$B12</f>
-        <v>-0.43193481828653008</v>
+        <v>0.77737953874746013</v>
       </c>
       <c r="E12">
-        <f ca="1">(E$2*$A12)+$B12</f>
-        <v>-1.1129426168831758</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2482607459860557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.17401472660061168</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.3057832022024616</v>
+      </c>
+      <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89175559817508143</v>
-      </c>
-      <c r="B13">
+        <v>-1.13176847560185</v>
+      </c>
+      <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.85425438766924966</v>
-      </c>
-      <c r="C13">
-        <f ca="1">(C$2*$A13)+$B13</f>
-        <v>-1.746009985844331</v>
-      </c>
-      <c r="D13">
-        <f ca="1">(D$2*$A13)+$B13</f>
-        <v>-0.85425438766924966</v>
+        <v>-1.3057832022024616</v>
       </c>
       <c r="E13">
-        <f ca="1">(E$2*$A13)+$B13</f>
-        <v>3.7501210505831772E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.4797979288030731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0605589349137572</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.95168837274204376</v>
+      </c>
+      <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8054034451246395</v>
-      </c>
-      <c r="B14">
+        <v>-2.0122473076558007</v>
+      </c>
+      <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.1336839784687788</v>
-      </c>
-      <c r="C14">
-        <f ca="1">(C$2*$A14)+$B14</f>
-        <v>1.6717194666558606</v>
-      </c>
-      <c r="D14">
-        <f ca="1">(D$2*$A14)+$B14</f>
-        <v>-0.1336839784687788</v>
+        <v>-0.95168837274204376</v>
       </c>
       <c r="E14">
-        <f ca="1">(E$2*$A14)+$B14</f>
-        <v>-1.9390874235934183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10887056217171343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.1251106617943119</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.19833855418638158</v>
+      </c>
+      <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2572871071375184</v>
-      </c>
-      <c r="B15">
+        <v>1.3234492159806934</v>
+      </c>
+      <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18285716789091794</v>
-      </c>
-      <c r="C15">
-        <f ca="1">(C$2*$A15)+$B15</f>
-        <v>-7.4429939246600463E-2</v>
-      </c>
-      <c r="D15">
-        <f ca="1">(D$2*$A15)+$B15</f>
-        <v>0.18285716789091794</v>
+        <v>0.19833855418638158</v>
       </c>
       <c r="E15">
-        <f ca="1">(E$2*$A15)+$B15</f>
-        <v>0.44014427502843634</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.92677210760793027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.4326757959567615</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2715231246236491</v>
+      </c>
+      <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8053464593428477</v>
-      </c>
-      <c r="B16">
+        <v>2.7041989205804109</v>
+      </c>
+      <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.94654196798949231</v>
-      </c>
-      <c r="C16">
-        <f ca="1">(C$2*$A16)+$B16</f>
-        <v>0.85880449135335535</v>
-      </c>
-      <c r="D16">
-        <f ca="1">(D$2*$A16)+$B16</f>
-        <v>-0.94654196798949231</v>
+        <v>1.2715231246236491</v>
       </c>
       <c r="E16">
-        <f ca="1">(E$2*$A16)+$B16</f>
-        <v>-2.7518884273323398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.1611526713331124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.19521518161919463</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.10067804607929536</v>
+      </c>
+      <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99658164707004437</v>
-      </c>
-      <c r="B17">
+        <v>9.4537135539899272E-2</v>
+      </c>
+      <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.80836367202253057</v>
-      </c>
-      <c r="C17">
-        <f ca="1">(C$2*$A17)+$B17</f>
-        <v>-1.8049453190925751</v>
-      </c>
-      <c r="D17">
-        <f ca="1">(D$2*$A17)+$B17</f>
-        <v>-0.80836367202253057</v>
+        <v>-0.10067804607929536</v>
       </c>
       <c r="E17">
-        <f ca="1">(E$2*$A17)+$B17</f>
-        <v>0.18821797504751381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.29589322769848997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.5651193265304495</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.478427072757872E-2</v>
+      </c>
+      <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5801056508277735</v>
-      </c>
-      <c r="B18">
+        <v>-0.54033505580287078</v>
+      </c>
+      <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3561629467642906</v>
-      </c>
-      <c r="C18">
-        <f ca="1">(C$2*$A18)+$B18</f>
-        <v>-2.9362685975920639</v>
-      </c>
-      <c r="D18">
-        <f ca="1">(D$2*$A18)+$B18</f>
-        <v>-1.3561629467642906</v>
+        <v>2.478427072757872E-2</v>
       </c>
       <c r="E18">
-        <f ca="1">(E$2*$A18)+$B18</f>
-        <v>0.22394270406348293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.58990359725802821</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7943429666293347</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.3319519375987053E-2</v>
+      </c>
+      <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.885921627899307</v>
-      </c>
-      <c r="B19">
+        <v>-1.7610234472533477</v>
+      </c>
+      <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41711528345142612</v>
-      </c>
-      <c r="C19">
-        <f ca="1">(C$2*$A19)+$B19</f>
-        <v>2.3030369113507332</v>
-      </c>
-      <c r="D19">
-        <f ca="1">(D$2*$A19)+$B19</f>
-        <v>0.41711528345142612</v>
+        <v>3.3319519375987053E-2</v>
       </c>
       <c r="E19">
-        <f ca="1">(E$2*$A19)+$B19</f>
-        <v>-1.4688063444478807</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8276624860053217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22213758714556311</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.0281676325956816E-2</v>
+      </c>
+      <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7484308450519577</v>
-      </c>
-      <c r="B20">
+        <v>-0.24241926347151993</v>
+      </c>
+      <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.1724572801796298</v>
-      </c>
-      <c r="C20">
-        <f ca="1">(C$2*$A20)+$B20</f>
-        <v>-1.9208881252315875</v>
-      </c>
-      <c r="D20">
-        <f ca="1">(D$2*$A20)+$B20</f>
-        <v>-0.1724572801796298</v>
+        <v>-2.0281676325956816E-2</v>
       </c>
       <c r="E20">
-        <f ca="1">(E$2*$A20)+$B20</f>
-        <v>1.5759735648723279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2018559108196063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.75064700479891255</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.27823520914150968</v>
+      </c>
+      <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23172615067575386</v>
-      </c>
-      <c r="B21">
+        <v>-1.0288822139404221</v>
+      </c>
+      <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.23518684344723131</v>
-      </c>
-      <c r="C21">
-        <f ca="1">(C$2*$A21)+$B21</f>
-        <v>-0.46691299412298515</v>
-      </c>
-      <c r="D21">
-        <f ca="1">(D$2*$A21)+$B21</f>
-        <v>-0.23518684344723131</v>
+        <v>-0.27823520914150968</v>
       </c>
       <c r="E21">
-        <f ca="1">(E$2*$A21)+$B21</f>
-        <v>-3.4606927714774527E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47241179565740288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.0169171951907423</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.65908411891757257</v>
+      </c>
+      <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.35371956542182065</v>
-      </c>
-      <c r="B22">
+        <v>0.35783307627316974</v>
+      </c>
+      <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.5384303166084986</v>
-      </c>
-      <c r="C22">
-        <f ca="1">(C$2*$A22)+$B22</f>
-        <v>-0.18471075118667796</v>
-      </c>
-      <c r="D22">
-        <f ca="1">(D$2*$A22)+$B22</f>
-        <v>-0.5384303166084986</v>
+        <v>-0.65908411891757257</v>
       </c>
       <c r="E22">
-        <f ca="1">(E$2*$A22)+$B22</f>
-        <v>-0.89214988203031931</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.6760013141083148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1959668078130974</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.137098504675194</v>
+      </c>
+      <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50274795462617616</v>
-      </c>
-      <c r="B23">
+        <v>0.94113169686209663</v>
+      </c>
+      <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.35587030465823621</v>
-      </c>
-      <c r="C23">
-        <f ca="1">(C$2*$A23)+$B23</f>
-        <v>-0.85861825928441238</v>
-      </c>
-      <c r="D23">
-        <f ca="1">(D$2*$A23)+$B23</f>
-        <v>-0.35587030465823621</v>
+        <v>2.137098504675194</v>
       </c>
       <c r="E23">
-        <f ca="1">(E$2*$A23)+$B23</f>
-        <v>0.14687764996793995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3330653124882916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50932917208742012</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.97993191129180435</v>
+      </c>
+      <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.85145816416487807</v>
-      </c>
-      <c r="B24">
+        <v>0.47060273920438422</v>
+      </c>
+      <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4494644692880279</v>
-      </c>
-      <c r="C24">
-        <f ca="1">(C$2*$A24)+$B24</f>
-        <v>2.300922633452906</v>
-      </c>
-      <c r="D24">
-        <f ca="1">(D$2*$A24)+$B24</f>
-        <v>1.4494644692880279</v>
+        <v>0.97993191129180435</v>
       </c>
       <c r="E24">
-        <f ca="1">(E$2*$A24)+$B24</f>
-        <v>0.59800630512314978</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4892610833792244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.15090969174184141</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.0264252607756268</v>
       </c>
       <c r="B25">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3144260196484969</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.55621848282360919</v>
       </c>
       <c r="C25">
-        <f ca="1">(C$2*$A25)+$B25</f>
-        <v>1.1635163279066556</v>
+        <f t="shared" ref="C25:E44" ca="1" si="2">(C$2*$A25)+$B25</f>
+        <v>0.4702067779520176</v>
       </c>
       <c r="D25">
-        <f ca="1">(D$2*$A25)+$B25</f>
-        <v>1.3144260196484969</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.55621848282360919</v>
       </c>
       <c r="E25">
-        <f ca="1">(E$2*$A25)+$B25</f>
-        <v>1.4653357113903382</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.582643743599236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.0514702167728553</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2318042077320153</v>
       </c>
       <c r="B26">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.0780506600963835</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3098297250912178E-2</v>
       </c>
       <c r="C26">
-        <f ca="1">(C$2*$A26)+$B26</f>
-        <v>-3.1295208768692389</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.2187059104811031</v>
       </c>
       <c r="D26">
-        <f ca="1">(D$2*$A26)+$B26</f>
-        <v>-1.0780506600963835</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3098297250912178E-2</v>
       </c>
       <c r="E26">
-        <f ca="1">(E$2*$A26)+$B26</f>
-        <v>0.97341955667647184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2449025049829274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2.7194872084875557</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.54039368910530194</v>
       </c>
       <c r="B27">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3246705701601253</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.0092699269548059E-2</v>
       </c>
       <c r="C27">
-        <f ca="1">(C$2*$A27)+$B27</f>
-        <v>4.0441577786476808</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.47030098983575386</v>
       </c>
       <c r="D27">
-        <f ca="1">(D$2*$A27)+$B27</f>
-        <v>1.3246705701601253</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.0092699269548059E-2</v>
       </c>
       <c r="E27">
-        <f ca="1">(E$2*$A27)+$B27</f>
-        <v>-1.3948166383274303</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.61048638837485003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.67636640672112236</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.5482189139363509</v>
       </c>
       <c r="B28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.79577864005093168</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.54502675334585815</v>
       </c>
       <c r="C28">
-        <f ca="1">(C$2*$A28)+$B28</f>
-        <v>1.472145046772054</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.0932456672822091</v>
       </c>
       <c r="D28">
-        <f ca="1">(D$2*$A28)+$B28</f>
-        <v>0.79577864005093168</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.54502675334585815</v>
       </c>
       <c r="E28">
-        <f ca="1">(E$2*$A28)+$B28</f>
-        <v>0.11941223332980933</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.0031921605904928</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.15031222781521311</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2387647254719836</v>
       </c>
       <c r="B29">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16052968239738274</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.55713479255922205</v>
       </c>
       <c r="C29">
-        <f ca="1">(C$2*$A29)+$B29</f>
-        <v>1.0217454582169633E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.7958995180312056</v>
       </c>
       <c r="D29">
-        <f ca="1">(D$2*$A29)+$B29</f>
-        <v>0.16052968239738274</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.55713479255922205</v>
       </c>
       <c r="E29">
-        <f ca="1">(E$2*$A29)+$B29</f>
-        <v>0.31084191021259588</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.68162993291276153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.6245678301232827</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2460990147414646</v>
       </c>
       <c r="B30">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.17082211770441597</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1776873818878526</v>
       </c>
       <c r="C30">
-        <f ca="1">(C$2*$A30)+$B30</f>
-        <v>1.4537457124188666</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-6.8411632853611959E-2</v>
       </c>
       <c r="D30">
-        <f ca="1">(D$2*$A30)+$B30</f>
-        <v>-0.17082211770441597</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1776873818878526</v>
       </c>
       <c r="E30">
-        <f ca="1">(E$2*$A30)+$B30</f>
-        <v>-1.7953899478276987</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.4237863966293172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.0529266493596649E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0116234222422553</v>
       </c>
       <c r="B31">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.75185975789791004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2054291072951901</v>
       </c>
       <c r="C31">
-        <f ca="1">(C$2*$A31)+$B31</f>
-        <v>-0.7823890243915067</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.19380568505293483</v>
       </c>
       <c r="D31">
-        <f ca="1">(D$2*$A31)+$B31</f>
-        <v>-0.75185975789791004</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2054291072951901</v>
       </c>
       <c r="E31">
-        <f ca="1">(E$2*$A31)+$B31</f>
-        <v>-0.72133049140431338</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2170525295374457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23384782902966461</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1854285210693612</v>
       </c>
       <c r="B32">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5619765457808072</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.8553090108860637</v>
       </c>
       <c r="C32">
-        <f ca="1">(C$2*$A32)+$B32</f>
-        <v>2.3281287167511424</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.0407375319554248</v>
       </c>
       <c r="D32">
-        <f ca="1">(D$2*$A32)+$B32</f>
-        <v>2.5619765457808072</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.8553090108860637</v>
       </c>
       <c r="E32">
-        <f ca="1">(E$2*$A32)+$B32</f>
-        <v>2.7958243748104721</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.66988048981670256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.87250110427652583</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9356696945957762</v>
       </c>
       <c r="B33">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.44797951353408189</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.9043006898063297</v>
       </c>
       <c r="C33">
-        <f ca="1">(C$2*$A33)+$B33</f>
-        <v>-0.42452159074244394</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96863099521055351</v>
       </c>
       <c r="D33">
-        <f ca="1">(D$2*$A33)+$B33</f>
-        <v>0.44797951353408189</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.9043006898063297</v>
       </c>
       <c r="E33">
-        <f ca="1">(E$2*$A33)+$B33</f>
-        <v>1.3204806178106077</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8399703844021058</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.6433115433684959</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.62100694615662333</v>
       </c>
       <c r="B34">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.61590453084419106</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.0515927182895508</v>
       </c>
       <c r="C34">
-        <f ca="1">(C$2*$A34)+$B34</f>
-        <v>1.0274070125243049</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.672599664446174</v>
       </c>
       <c r="D34">
-        <f ca="1">(D$2*$A34)+$B34</f>
-        <v>-0.61590453084419106</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.0515927182895508</v>
       </c>
       <c r="E34">
-        <f ca="1">(E$2*$A34)+$B34</f>
-        <v>-2.259216074212687</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.43058577213292748</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.17949293800749225</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.6907682548285163</v>
       </c>
       <c r="B35">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.70900271162618023</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.68591123032339063</v>
       </c>
       <c r="C35">
-        <f ca="1">(C$2*$A35)+$B35</f>
-        <v>0.88849564963367245</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0048570245051258</v>
       </c>
       <c r="D35">
-        <f ca="1">(D$2*$A35)+$B35</f>
-        <v>0.70900271162618023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.68591123032339063</v>
       </c>
       <c r="E35">
-        <f ca="1">(E$2*$A35)+$B35</f>
-        <v>0.52950977361868801</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.3766794851519069</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.96237685573344323</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.38713007314149567</v>
       </c>
       <c r="B36">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.89346102067870903</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.1617419201818582</v>
       </c>
       <c r="C36">
-        <f ca="1">(C$2*$A36)+$B36</f>
-        <v>6.8915835054734198E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.77461184704036246</v>
       </c>
       <c r="D36">
-        <f ca="1">(D$2*$A36)+$B36</f>
-        <v>-0.89346102067870903</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.1617419201818582</v>
       </c>
       <c r="E36">
-        <f ca="1">(E$2*$A36)+$B36</f>
-        <v>-1.8558378764121524</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.5488719933233539</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.3085236423674873</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36762243978894971</v>
       </c>
       <c r="B37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7106843280311745</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.6468365128386158</v>
       </c>
       <c r="C37">
-        <f ca="1">(C$2*$A37)+$B37</f>
-        <v>3.0192079703986616</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.0144589526275656</v>
       </c>
       <c r="D37">
-        <f ca="1">(D$2*$A37)+$B37</f>
-        <v>1.7106843280311745</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.6468365128386158</v>
       </c>
       <c r="E37">
-        <f ca="1">(E$2*$A37)+$B37</f>
-        <v>0.40216068566368723</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.2792140730496659</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.71019095255208198</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0020721653217279</v>
       </c>
       <c r="B38">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.7289746546239122</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3428811945769978</v>
       </c>
       <c r="C38">
-        <f ca="1">(C$2*$A38)+$B38</f>
-        <v>-1.4391656071759942</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3408090292552699</v>
       </c>
       <c r="D38">
-        <f ca="1">(D$2*$A38)+$B38</f>
-        <v>-0.7289746546239122</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3428811945769978</v>
       </c>
       <c r="E38">
-        <f ca="1">(E$2*$A38)+$B38</f>
-        <v>-1.8783702071830222E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.3449533598987258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.88207094803599384</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.85897098522271265</v>
       </c>
       <c r="B39">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.57018143704353319</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56313959279183778</v>
       </c>
       <c r="C39">
-        <f ca="1">(C$2*$A39)+$B39</f>
-        <v>-1.452252385079527</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.29583139243087486</v>
       </c>
       <c r="D39">
-        <f ca="1">(D$2*$A39)+$B39</f>
-        <v>-0.57018143704353319</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.56313959279183778</v>
       </c>
       <c r="E39">
-        <f ca="1">(E$2*$A39)+$B39</f>
-        <v>0.31188951099246065</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4221105780145504</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.0821430161400123</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.32508660485293628</v>
       </c>
       <c r="B40">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.54587520512189691</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.84195686253638136</v>
       </c>
       <c r="C40">
-        <f ca="1">(C$2*$A40)+$B40</f>
-        <v>1.6280182212619092</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.51687025768344508</v>
       </c>
       <c r="D40">
-        <f ca="1">(D$2*$A40)+$B40</f>
-        <v>0.54587520512189691</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.84195686253638136</v>
       </c>
       <c r="E40">
-        <f ca="1">(E$2*$A40)+$B40</f>
-        <v>-0.53626781101811538</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.1670434673893175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4.2785539205622532E-3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.61365734204799705</v>
       </c>
       <c r="B41">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.86126389956941107</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.17452266614831566</v>
       </c>
       <c r="C41">
-        <f ca="1">(C$2*$A41)+$B41</f>
-        <v>0.86554245348997327</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.78818000819631273</v>
       </c>
       <c r="D41">
-        <f ca="1">(D$2*$A41)+$B41</f>
-        <v>0.86126389956941107</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.17452266614831566</v>
       </c>
       <c r="E41">
-        <f ca="1">(E$2*$A41)+$B41</f>
-        <v>0.85698534564884887</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.43913467589968136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.12040591723010211</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1048860321636709</v>
       </c>
       <c r="B42">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.22031454823846058</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.4693801034593945</v>
       </c>
       <c r="C42">
-        <f ca="1">(C$2*$A42)+$B42</f>
-        <v>0.34072046546856272</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-3.5742661356230654</v>
       </c>
       <c r="D42">
-        <f ca="1">(D$2*$A42)+$B42</f>
-        <v>0.22031454823846058</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.4693801034593945</v>
       </c>
       <c r="E42">
-        <f ca="1">(E$2*$A42)+$B42</f>
-        <v>9.9908631008358478E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.63550592870427636</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89887737725361971</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.2863426682558177</v>
       </c>
       <c r="B43">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.31658184137157203</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.57021244331577792</v>
       </c>
       <c r="C43">
-        <f ca="1">(C$2*$A43)+$B43</f>
-        <v>-0.58229553588204763</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.7161302249400396</v>
       </c>
       <c r="D43">
-        <f ca="1">(D$2*$A43)+$B43</f>
-        <v>0.31658184137157203</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.57021244331577792</v>
       </c>
       <c r="E43">
-        <f ca="1">(E$2*$A43)+$B43</f>
-        <v>1.2154592186251918</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.8565551115715957</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.11524177987399845</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2259994596217991</v>
       </c>
       <c r="B44">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.24443894607123573</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.69594764445030433</v>
       </c>
       <c r="C44">
-        <f ca="1">(C$2*$A44)+$B44</f>
-        <v>-0.12919716619723728</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.9219471040721035</v>
       </c>
       <c r="D44">
-        <f ca="1">(D$2*$A44)+$B44</f>
-        <v>-0.24443894607123573</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.69594764445030433</v>
       </c>
       <c r="E44">
-        <f ca="1">(E$2*$A44)+$B44</f>
-        <v>-0.35968072594523415</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5300518151714948</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.51296054193697782</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3131113734800104</v>
       </c>
       <c r="B45">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.24347685041060371</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7214634871384713</v>
       </c>
       <c r="C45">
-        <f ca="1">(C$2*$A45)+$B45</f>
-        <v>-0.26948369152637408</v>
+        <f t="shared" ref="C45:E64" ca="1" si="3">(C$2*$A45)+$B45</f>
+        <v>0.40835211365846091</v>
       </c>
       <c r="D45">
-        <f ca="1">(D$2*$A45)+$B45</f>
-        <v>0.24347685041060371</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.7214634871384713</v>
       </c>
       <c r="E45">
-        <f ca="1">(E$2*$A45)+$B45</f>
-        <v>0.75643739234758156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.0345748606184815</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.50844849929695368</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.4875641901334316</v>
       </c>
       <c r="B46">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.45002491866545929</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33618966132890366</v>
       </c>
       <c r="C46">
-        <f ca="1">(C$2*$A46)+$B46</f>
-        <v>5.8423580631494387E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.1513745288045278</v>
       </c>
       <c r="D46">
-        <f ca="1">(D$2*$A46)+$B46</f>
-        <v>-0.45002491866545929</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.33618966132890366</v>
       </c>
       <c r="E46">
-        <f ca="1">(E$2*$A46)+$B46</f>
-        <v>-0.95847341796241303</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.8237538514623353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5089949566006273</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.46208249367447746</v>
       </c>
       <c r="B47">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0844859804159592</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.98285309016891476</v>
       </c>
       <c r="C47">
-        <f ca="1">(C$2*$A47)+$B47</f>
-        <v>-0.4245089761846681</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.4449355838433922</v>
       </c>
       <c r="D47">
-        <f ca="1">(D$2*$A47)+$B47</f>
-        <v>1.0844859804159592</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.98285309016891476</v>
       </c>
       <c r="E47">
-        <f ca="1">(E$2*$A47)+$B47</f>
-        <v>2.5934809370165866</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.52077059649443735</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2.3724424476350454</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.7658784454981444</v>
       </c>
       <c r="B48">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.28708248673381392</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.6757973475019331</v>
       </c>
       <c r="C48">
-        <f ca="1">(C$2*$A48)+$B48</f>
-        <v>2.6595249343688594</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0900810979962112</v>
       </c>
       <c r="D48">
-        <f ca="1">(D$2*$A48)+$B48</f>
-        <v>0.28708248673381392</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.6757973475019331</v>
       </c>
       <c r="E48">
-        <f ca="1">(E$2*$A48)+$B48</f>
-        <v>-2.0853599609012314</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.4416757930000776</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.1698602480227387</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.97121777385431907</v>
       </c>
       <c r="B49">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.2318393056418625</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.2963213965380811</v>
       </c>
       <c r="C49">
-        <f ca="1">(C$2*$A49)+$B49</f>
-        <v>0.93802094238087619</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.2675391703923999</v>
       </c>
       <c r="D49">
-        <f ca="1">(D$2*$A49)+$B49</f>
-        <v>-0.2318393056418625</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.2963213965380811</v>
       </c>
       <c r="E49">
-        <f ca="1">(E$2*$A49)+$B49</f>
-        <v>-1.4016995536646011</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.32510362268376203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1460229338374041E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.47148898938385986</v>
       </c>
       <c r="B50">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.42843897718491208</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.15371129059743499</v>
       </c>
       <c r="C50">
-        <f ca="1">(C$2*$A50)+$B50</f>
-        <v>0.33697874784653803</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.31777769878642487</v>
       </c>
       <c r="D50">
-        <f ca="1">(D$2*$A50)+$B50</f>
-        <v>0.42843897718491208</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.15371129059743499</v>
       </c>
       <c r="E50">
-        <f ca="1">(E$2*$A50)+$B50</f>
-        <v>0.51989920652328614</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.62520027998129479</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.1134257495557673</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.1297742730599</v>
       </c>
       <c r="B51">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.3447362567933014</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.8783476719526087E-2</v>
       </c>
       <c r="C51">
-        <f ca="1">(C$2*$A51)+$B51</f>
-        <v>1.2313105072375341</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.15855774977942608</v>
       </c>
       <c r="D51">
-        <f ca="1">(D$2*$A51)+$B51</f>
-        <v>2.3447362567933014</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.8783476719526087E-2</v>
       </c>
       <c r="E51">
-        <f ca="1">(E$2*$A51)+$B51</f>
-        <v>3.4581620063490686</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.10099079634037392</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.83589723745135847</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.14030262210726774</v>
       </c>
       <c r="B52">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.62808590936843156</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.9827542264309361</v>
       </c>
       <c r="C52">
-        <f ca="1">(C$2*$A52)+$B52</f>
-        <v>1.4639831468197899</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.8424516043236685</v>
       </c>
       <c r="D52">
-        <f ca="1">(D$2*$A52)+$B52</f>
-        <v>0.62808590936843156</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.9827542264309361</v>
       </c>
       <c r="E52">
-        <f ca="1">(E$2*$A52)+$B52</f>
-        <v>-0.2078113280829269</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.1230568485382038</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.89727588032966998</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.46875052321909838</v>
       </c>
       <c r="B53">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0609103057093638</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.89197510016240589</v>
       </c>
       <c r="C53">
-        <f ca="1">(C$2*$A53)+$B53</f>
-        <v>0.16363442537969386</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.3607256233815042</v>
       </c>
       <c r="D53">
-        <f ca="1">(D$2*$A53)+$B53</f>
-        <v>1.0609103057093638</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.89197510016240589</v>
       </c>
       <c r="E53">
-        <f ca="1">(E$2*$A53)+$B53</f>
-        <v>1.9581861860390339</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.42322457694330751</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7226314096886859</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.3438339010536011</v>
       </c>
       <c r="B54">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14569384013188119</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5643105083330064</v>
       </c>
       <c r="C54">
-        <f ca="1">(C$2*$A54)+$B54</f>
-        <v>-1.5769375695568046</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.9081444093866073</v>
       </c>
       <c r="D54">
-        <f ca="1">(D$2*$A54)+$B54</f>
-        <v>0.14569384013188119</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5643105083330064</v>
       </c>
       <c r="E54">
-        <f ca="1">(E$2*$A54)+$B54</f>
-        <v>1.8683252498205671</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.22047660727940532</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.79286764481014804</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.0429708543688563</v>
       </c>
       <c r="B55">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3529965695488102</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.20518305102214776</v>
       </c>
       <c r="C55">
-        <f ca="1">(C$2*$A55)+$B55</f>
-        <v>-0.43987107526133784</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.248153905391004</v>
       </c>
       <c r="D55">
-        <f ca="1">(D$2*$A55)+$B55</f>
-        <v>0.3529965695488102</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.20518305102214776</v>
       </c>
       <c r="E55">
-        <f ca="1">(E$2*$A55)+$B55</f>
-        <v>1.1458642143589581</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.83778780334670855</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.92030458895684153</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.7578150495167193</v>
       </c>
       <c r="B56">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.6810799561206038</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.5672039572997567</v>
       </c>
       <c r="C56">
-        <f ca="1">(C$2*$A56)+$B56</f>
-        <v>-2.6013845450774453</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.325019006816476</v>
       </c>
       <c r="D56">
-        <f ca="1">(D$2*$A56)+$B56</f>
-        <v>-1.6810799561206038</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.5672039572997567</v>
       </c>
       <c r="E56">
-        <f ca="1">(E$2*$A56)+$B56</f>
-        <v>-0.76077536716376226</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.8093889077830374</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.1433128113881215</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.3575235793620513</v>
       </c>
       <c r="B57">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.61679297648941811</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.0482752312966317</v>
       </c>
       <c r="C57">
-        <f ca="1">(C$2*$A57)+$B57</f>
-        <v>-1.7601057878775395</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.4057988106586832</v>
       </c>
       <c r="D57">
-        <f ca="1">(D$2*$A57)+$B57</f>
-        <v>-0.61679297648941811</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.0482752312966317</v>
       </c>
       <c r="E57">
-        <f ca="1">(E$2*$A57)+$B57</f>
-        <v>0.52651983489870335</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3092483480654196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.20041628418482454</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.4154031567265746</v>
       </c>
       <c r="B58">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.99532679295529869</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.6426093013677934</v>
       </c>
       <c r="C58">
-        <f ca="1">(C$2*$A58)+$B58</f>
-        <v>1.1957430771401232</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.0580124580943679</v>
       </c>
       <c r="D58">
-        <f ca="1">(D$2*$A58)+$B58</f>
-        <v>0.99532679295529869</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.6426093013677934</v>
       </c>
       <c r="E58">
-        <f ca="1">(E$2*$A58)+$B58</f>
-        <v>0.7949105087704742</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.2272061446412188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6782737447824148</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.6810112438234635</v>
       </c>
       <c r="B59">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.1322581438504418</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.32423869938333622</v>
       </c>
       <c r="C59">
-        <f ca="1">(C$2*$A59)+$B59</f>
-        <v>-2.8105318886328563</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.0052499432067998</v>
       </c>
       <c r="D59">
-        <f ca="1">(D$2*$A59)+$B59</f>
-        <v>-1.1322581438504418</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.32423869938333622</v>
       </c>
       <c r="E59">
-        <f ca="1">(E$2*$A59)+$B59</f>
-        <v>0.54601560093197299</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.3567725444401271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.693993909095254</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.4576622776813921</v>
       </c>
       <c r="B60">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.6849594519611556</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.73804822604177023</v>
       </c>
       <c r="C60">
-        <f ca="1">(C$2*$A60)+$B60</f>
-        <v>-2.3789533610564098</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.1957105037231623</v>
       </c>
       <c r="D60">
-        <f ca="1">(D$2*$A60)+$B60</f>
-        <v>-0.6849594519611556</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.73804822604177023</v>
       </c>
       <c r="E60">
-        <f ca="1">(E$2*$A60)+$B60</f>
-        <v>1.0090344571340983</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.71961405163962189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.16608152965745948</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.38314359968126255</v>
       </c>
       <c r="B61">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4897609744481129</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.0920950145307069</v>
       </c>
       <c r="C61">
-        <f ca="1">(C$2*$A61)+$B61</f>
-        <v>0.65584250410557243</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.70895141484944435</v>
       </c>
       <c r="D61">
-        <f ca="1">(D$2*$A61)+$B61</f>
-        <v>0.4897609744481129</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.0920950145307069</v>
       </c>
       <c r="E61">
-        <f ca="1">(E$2*$A61)+$B61</f>
-        <v>0.32367944479065341</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.4752386142119693</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.9147552965543113</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.73959494232463063</v>
       </c>
       <c r="B62">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.36076003983690508</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.62691060449475988</v>
       </c>
       <c r="C62">
-        <f ca="1">(C$2*$A62)+$B62</f>
-        <v>2.2755153363912166</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3665055468193905</v>
       </c>
       <c r="D62">
-        <f ca="1">(D$2*$A62)+$B62</f>
-        <v>0.36076003983690508</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.62691060449475988</v>
       </c>
       <c r="E62">
-        <f ca="1">(E$2*$A62)+$B62</f>
-        <v>-1.5539952567174062</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.11268433782987075</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.1996948050600553</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.40963648671890152</v>
       </c>
       <c r="B63">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.10974003758798311</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-6.5536306197270036E-2</v>
       </c>
       <c r="C63">
-        <f ca="1">(C$2*$A63)+$B63</f>
-        <v>-1.0899547674720722</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.34410018052163149</v>
       </c>
       <c r="D63">
-        <f ca="1">(D$2*$A63)+$B63</f>
-        <v>0.10974003758798311</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-6.5536306197270036E-2</v>
       </c>
       <c r="E63">
-        <f ca="1">(E$2*$A63)+$B63</f>
-        <v>1.3094348426480384</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.47517279291617154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.91560934125092641</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.7106960198383834</v>
       </c>
       <c r="B64">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.9679181706426836</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1661353082162145</v>
       </c>
       <c r="C64">
-        <f ca="1">(C$2*$A64)+$B64</f>
-        <v>-1.8835275118936101</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.8768313280545978</v>
       </c>
       <c r="D64">
-        <f ca="1">(D$2*$A64)+$B64</f>
-        <v>-0.9679181706426836</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1661353082162145</v>
       </c>
       <c r="E64">
-        <f ca="1">(E$2*$A64)+$B64</f>
-        <v>-5.2308829391757183E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.5445607116221689</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.59543539074038576</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.56835534365142559</v>
       </c>
       <c r="B65">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.18219903409543095</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.2605770112685619</v>
       </c>
       <c r="C65">
-        <f ca="1">(C$2*$A65)+$B65</f>
-        <v>0.77763442483581668</v>
+        <f t="shared" ref="C65:E84" ca="1" si="4">(C$2*$A65)+$B65</f>
+        <v>-0.69222166761713633</v>
       </c>
       <c r="D65">
-        <f ca="1">(D$2*$A65)+$B65</f>
-        <v>0.18219903409543095</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.2605770112685619</v>
       </c>
       <c r="E65">
-        <f ca="1">(E$2*$A65)+$B65</f>
-        <v>-0.41323635664495484</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.8289323549199876</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.3812785547347501</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.0787331678118368</v>
       </c>
       <c r="B66">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.84253698826470635</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.73634592038981872</v>
       </c>
       <c r="C66">
-        <f ca="1">(C$2*$A66)+$B66</f>
-        <v>2.2238155429994566</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.34238724742201809</v>
       </c>
       <c r="D66">
-        <f ca="1">(D$2*$A66)+$B66</f>
-        <v>0.84253698826470635</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.73634592038981872</v>
       </c>
       <c r="E66">
-        <f ca="1">(E$2*$A66)+$B66</f>
-        <v>-0.53874156647004379</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.8150790882016556</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.0367232881297688</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6460677349695685</v>
       </c>
       <c r="B67">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.26282851912533783</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.2469270735074316</v>
       </c>
       <c r="C67">
-        <f ca="1">(C$2*$A67)+$B67</f>
-        <v>1.2995518072551067</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-2.8929948084769999</v>
       </c>
       <c r="D67">
-        <f ca="1">(D$2*$A67)+$B67</f>
-        <v>0.26282851912533783</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.2469270735074316</v>
       </c>
       <c r="E67">
-        <f ca="1">(E$2*$A67)+$B67</f>
-        <v>-0.77389476900443088</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.39914066146213689</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.43076833446911561</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.79594898521228896</v>
       </c>
       <c r="B68">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.86813618420723004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.57187979571247571</v>
       </c>
       <c r="C68">
-        <f ca="1">(C$2*$A68)+$B68</f>
-        <v>-1.2989045186763457</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.3678287809247647</v>
       </c>
       <c r="D68">
-        <f ca="1">(D$2*$A68)+$B68</f>
-        <v>-0.86813618420723004</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.57187979571247571</v>
       </c>
       <c r="E68">
-        <f ca="1">(E$2*$A68)+$B68</f>
-        <v>-0.43736784973811443</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.22406918949981325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.57461925999865593</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.17282458103237613</v>
       </c>
       <c r="B69">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.6691528208540993</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.71496881619486186</v>
       </c>
       <c r="C69">
-        <f ca="1">(C$2*$A69)+$B69</f>
-        <v>-1.0945335608554434</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.54214423516248567</v>
       </c>
       <c r="D69">
-        <f ca="1">(D$2*$A69)+$B69</f>
-        <v>-1.6691528208540993</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.71496881619486186</v>
       </c>
       <c r="E69">
-        <f ca="1">(E$2*$A69)+$B69</f>
-        <v>-2.2437720808527555</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.88779339722723805</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" ref="A70:B104" ca="1" si="1">_xlfn.NORM.INV(RAND(),0,1)</f>
-        <v>0.36086621572132804</v>
+        <f t="shared" ref="A70:B104" ca="1" si="5">_xlfn.NORM.INV(RAND(),0,1)</f>
+        <v>-0.7399390111421178</v>
       </c>
       <c r="B70">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.79497759355293862</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.75454718329942749</v>
       </c>
       <c r="C70">
-        <f ca="1">(C$2*$A70)+$B70</f>
-        <v>-1.1558438092742667</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1.4944861944415453</v>
       </c>
       <c r="D70">
-        <f ca="1">(D$2*$A70)+$B70</f>
-        <v>-0.79497759355293862</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.75454718329942749</v>
       </c>
       <c r="E70">
-        <f ca="1">(E$2*$A70)+$B70</f>
-        <v>-0.43411137783161058</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.4608172157309696E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.9417078345125196</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2.9230493490973088E-2</v>
       </c>
       <c r="B71">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.3246131562654052E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.23603320710956341</v>
       </c>
       <c r="C71">
-        <f ca="1">(C$2*$A71)+$B71</f>
-        <v>-0.9649539660751737</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.2652637006005365</v>
       </c>
       <c r="D71">
-        <f ca="1">(D$2*$A71)+$B71</f>
-        <v>-2.3246131562654052E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.23603320710956341</v>
       </c>
       <c r="E71">
-        <f ca="1">(E$2*$A71)+$B71</f>
-        <v>0.91846170294986551</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.20680271361859032</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.55821695591541409</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.10418535661911749</v>
       </c>
       <c r="B72">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.7665956622553307</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2.1592430398987381</v>
       </c>
       <c r="C72">
-        <f ca="1">(C$2*$A72)+$B72</f>
-        <v>1.2083787063399165</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.2634283965178557</v>
       </c>
       <c r="D72">
-        <f ca="1">(D$2*$A72)+$B72</f>
-        <v>1.7665956622553307</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.1592430398987381</v>
       </c>
       <c r="E72">
-        <f ca="1">(E$2*$A72)+$B72</f>
-        <v>2.3248126181707449</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.0550576832796206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.83219809480658025</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.64428365858370429</v>
       </c>
       <c r="B73">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.84538559845884031</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.62066262693300711</v>
       </c>
       <c r="C73">
-        <f ca="1">(C$2*$A73)+$B73</f>
-        <v>1.3187503652260069E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-2.3621031650697177E-2</v>
       </c>
       <c r="D73">
-        <f ca="1">(D$2*$A73)+$B73</f>
-        <v>0.84538559845884031</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.62066262693300711</v>
       </c>
       <c r="E73">
-        <f ca="1">(E$2*$A73)+$B73</f>
-        <v>1.6775836932654205</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.2649462855167113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.15107791337426063</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.29537037591060278</v>
       </c>
       <c r="B74">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.50571354736689256</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.0402087156628989E-2</v>
       </c>
       <c r="C74">
-        <f ca="1">(C$2*$A74)+$B74</f>
-        <v>0.35463563399263193</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.32577246306723179</v>
       </c>
       <c r="D74">
-        <f ca="1">(D$2*$A74)+$B74</f>
-        <v>0.50571354736689256</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.0402087156628989E-2</v>
       </c>
       <c r="E74">
-        <f ca="1">(E$2*$A74)+$B74</f>
-        <v>0.65679146074115313</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.26496828875397377</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.80179580382791238</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.71231414868178655</v>
       </c>
       <c r="B75">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5015897843424022</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.21779579005268437</v>
       </c>
       <c r="C75">
-        <f ca="1">(C$2*$A75)+$B75</f>
-        <v>1.3033855881703147</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.49451835862910221</v>
       </c>
       <c r="D75">
-        <f ca="1">(D$2*$A75)+$B75</f>
-        <v>0.5015897843424022</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.21779579005268437</v>
       </c>
       <c r="E75">
-        <f ca="1">(E$2*$A75)+$B75</f>
-        <v>-0.30020601948551018</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.9301099387344709</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.72674741721111857</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.67558058201866711</v>
       </c>
       <c r="B76">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.3379656529552811E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.69802629000543748</v>
       </c>
       <c r="C76">
-        <f ca="1">(C$2*$A76)+$B76</f>
-        <v>-0.66336776068156578</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.2445707986770369E-2</v>
       </c>
       <c r="D76">
-        <f ca="1">(D$2*$A76)+$B76</f>
-        <v>6.3379656529552811E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.69802629000543748</v>
       </c>
       <c r="E76">
-        <f ca="1">(E$2*$A76)+$B76</f>
-        <v>0.79012707374067137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.3736068720241046</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.67012691711177441</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.529074851591707E-3</v>
       </c>
       <c r="B77">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.0805503149729044E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.4881564950197872</v>
       </c>
       <c r="C77">
-        <f ca="1">(C$2*$A77)+$B77</f>
-        <v>-0.5793214139620454</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.4946855698713788</v>
       </c>
       <c r="D77">
-        <f ca="1">(D$2*$A77)+$B77</f>
-        <v>9.0805503149729044E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.4881564950197872</v>
       </c>
       <c r="E77">
-        <f ca="1">(E$2*$A77)+$B77</f>
-        <v>0.76093242026150343</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.4816274201681956</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.7097814858444151</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.4996543892923455</v>
       </c>
       <c r="B78">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.74742028888980372</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.5301860428085633</v>
       </c>
       <c r="C78">
-        <f ca="1">(C$2*$A78)+$B78</f>
-        <v>-2.457201774734219</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.96946834648378222</v>
       </c>
       <c r="D78">
-        <f ca="1">(D$2*$A78)+$B78</f>
-        <v>-0.74742028888980372</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.5301860428085633</v>
       </c>
       <c r="E78">
-        <f ca="1">(E$2*$A78)+$B78</f>
-        <v>0.96236119695461142</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2.0298404321009089</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.3734634429898107</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.76138365933370111</v>
       </c>
       <c r="B79">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.82847770365611528</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.2975947237540435</v>
       </c>
       <c r="C79">
-        <f ca="1">(C$2*$A79)+$B79</f>
-        <v>-2.2019411466459262</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.46378893557965761</v>
       </c>
       <c r="D79">
-        <f ca="1">(D$2*$A79)+$B79</f>
-        <v>-0.82847770365611528</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.2975947237540435</v>
       </c>
       <c r="E79">
-        <f ca="1">(E$2*$A79)+$B79</f>
-        <v>0.54498573933369543</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.0589783830877446</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.0456626280740231</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.8465120310965411E-2</v>
       </c>
       <c r="B80">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2192135455333363</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.48806855717624903</v>
       </c>
       <c r="C80">
-        <f ca="1">(C$2*$A80)+$B80</f>
-        <v>1.2648761736073595</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.50653367748721445</v>
       </c>
       <c r="D80">
-        <f ca="1">(D$2*$A80)+$B80</f>
-        <v>0.2192135455333363</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.48806855717624903</v>
       </c>
       <c r="E80">
-        <f ca="1">(E$2*$A80)+$B80</f>
-        <v>-0.82644908254068683</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.46960343686528361</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.13410654815145515</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.75681084545094568</v>
       </c>
       <c r="B81">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.6771671210866268</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.4879633700548856</v>
       </c>
       <c r="C81">
-        <f ca="1">(C$2*$A81)+$B81</f>
-        <v>0.81127366923808197</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1.2447742155058312</v>
       </c>
       <c r="D81">
-        <f ca="1">(D$2*$A81)+$B81</f>
-        <v>0.6771671210866268</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.4879633700548856</v>
       </c>
       <c r="E81">
-        <f ca="1">(E$2*$A81)+$B81</f>
-        <v>0.54306057293517163</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.26884747539606008</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.58514179443427083</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-4.9199763369872015E-2</v>
       </c>
       <c r="B82">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.18142327961324664</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.72192178410825592</v>
       </c>
       <c r="C82">
-        <f ca="1">(C$2*$A82)+$B82</f>
-        <v>0.7665650740475175</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.67272202073838394</v>
       </c>
       <c r="D82">
-        <f ca="1">(D$2*$A82)+$B82</f>
-        <v>0.18142327961324664</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.72192178410825592</v>
       </c>
       <c r="E82">
-        <f ca="1">(E$2*$A82)+$B82</f>
-        <v>-0.40371851482102417</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.77112154747812789</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.42054844674259356</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0143003095392009</v>
       </c>
       <c r="B83">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.8044406075795699E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.34532516873689717</v>
       </c>
       <c r="C83">
-        <f ca="1">(C$2*$A83)+$B83</f>
-        <v>0.45859285281838924</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.66897514080230369</v>
       </c>
       <c r="D83">
-        <f ca="1">(D$2*$A83)+$B83</f>
-        <v>3.8044406075795699E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.34532516873689717</v>
       </c>
       <c r="E83">
-        <f ca="1">(E$2*$A83)+$B83</f>
-        <v>-0.38250404066679788</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.3596254782760981</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.23804045349072447</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.24527985353933335</v>
       </c>
       <c r="B84">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.5410565713876601</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.76681377351412638</v>
       </c>
       <c r="C84">
-        <f ca="1">(C$2*$A84)+$B84</f>
-        <v>1.7790970248783846</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.52153391997479304</v>
       </c>
       <c r="D84">
-        <f ca="1">(D$2*$A84)+$B84</f>
-        <v>1.5410565713876601</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.76681377351412638</v>
       </c>
       <c r="E84">
-        <f ca="1">(E$2*$A84)+$B84</f>
-        <v>1.3030161178969355</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0120936270534597</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.29846832037997706</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.15812698636304678</v>
       </c>
       <c r="B85">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.8731587961465366</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.2472109243427896E-2</v>
       </c>
       <c r="C85">
-        <f ca="1">(C$2*$A85)+$B85</f>
-        <v>-2.1716271165265137</v>
+        <f t="shared" ref="C85:E104" ca="1" si="6">(C$2*$A85)+$B85</f>
+        <v>-8.5654877119618889E-2</v>
       </c>
       <c r="D85">
-        <f ca="1">(D$2*$A85)+$B85</f>
-        <v>-1.8731587961465366</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>7.2472109243427896E-2</v>
       </c>
       <c r="E85">
-        <f ca="1">(E$2*$A85)+$B85</f>
-        <v>-1.5746904757665594</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.23059909560647468</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.31996272397898429</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.4442136051590133</v>
       </c>
       <c r="B86">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.4314306961665821</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-4.3028309455176265E-3</v>
       </c>
       <c r="C86">
-        <f ca="1">(C$2*$A86)+$B86</f>
-        <v>-1.1114679721875977</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.4399107742134958</v>
       </c>
       <c r="D86">
-        <f ca="1">(D$2*$A86)+$B86</f>
-        <v>-1.4314306961665821</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-4.3028309455176265E-3</v>
       </c>
       <c r="E86">
-        <f ca="1">(E$2*$A86)+$B86</f>
-        <v>-1.7513934201455665</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.4485164361045308</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.65028106364139</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.81428422593705296</v>
       </c>
       <c r="B87">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.93307867487843021</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.99611891581369938</v>
       </c>
       <c r="C87">
-        <f ca="1">(C$2*$A87)+$B87</f>
-        <v>-2.5833597385198201</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.8104031417507525</v>
       </c>
       <c r="D87">
-        <f ca="1">(D$2*$A87)+$B87</f>
-        <v>-0.93307867487843021</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.99611891581369938</v>
       </c>
       <c r="E87">
-        <f ca="1">(E$2*$A87)+$B87</f>
-        <v>0.71720238876295983</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.18183468987664642</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.91390689347973153</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-9.1267377913660562E-5</v>
       </c>
       <c r="B88">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.22583295298484918</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.2565126995175555</v>
       </c>
       <c r="C88">
-        <f ca="1">(C$2*$A88)+$B88</f>
-        <v>-0.68807394049488235</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.2564214321396419</v>
       </c>
       <c r="D88">
-        <f ca="1">(D$2*$A88)+$B88</f>
-        <v>0.22583295298484918</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.2565126995175555</v>
       </c>
       <c r="E88">
-        <f ca="1">(E$2*$A88)+$B88</f>
-        <v>1.1397398464645807</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.2566039668954692</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.34571192423835023</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.83285197015230428</v>
       </c>
       <c r="B89">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.4845807927149877E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.1938547657543805</v>
       </c>
       <c r="C89">
-        <f ca="1">(C$2*$A89)+$B89</f>
-        <v>-0.31086611631120037</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.36100279560207627</v>
       </c>
       <c r="D89">
-        <f ca="1">(D$2*$A89)+$B89</f>
-        <v>3.4845807927149877E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.1938547657543805</v>
       </c>
       <c r="E89">
-        <f ca="1">(E$2*$A89)+$B89</f>
-        <v>0.3805577321655001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.0267067359066848</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.2024668800541582</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.349812250807612</v>
       </c>
       <c r="B90">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.20709012879177843</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6.8975228765681879E-2</v>
       </c>
       <c r="C90">
-        <f ca="1">(C$2*$A90)+$B90</f>
-        <v>1.4095570088459366</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.2808370220419301</v>
       </c>
       <c r="D90">
-        <f ca="1">(D$2*$A90)+$B90</f>
-        <v>0.20709012879177843</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>6.8975228765681879E-2</v>
       </c>
       <c r="E90">
-        <f ca="1">(E$2*$A90)+$B90</f>
-        <v>-0.99537675126237979</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.418787479573294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.1356854992894416</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.94565132030250809</v>
       </c>
       <c r="B91">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.1099146251155983E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.79857748457973343</v>
       </c>
       <c r="C91">
-        <f ca="1">(C$2*$A91)+$B91</f>
-        <v>1.1407954139145573</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.14707383572277466</v>
       </c>
       <c r="D91">
-        <f ca="1">(D$2*$A91)+$B91</f>
-        <v>5.1099146251155983E-3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.79857748457973343</v>
       </c>
       <c r="E91">
-        <f ca="1">(E$2*$A91)+$B91</f>
-        <v>-1.1305755846643259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.7442288048822414</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.28022451641739893</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.14193200015716803</v>
       </c>
       <c r="B92">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.8946509666137623E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.7223692277688312</v>
       </c>
       <c r="C92">
-        <f ca="1">(C$2*$A92)+$B92</f>
-        <v>-0.30917102608353653</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.5804372276116632</v>
       </c>
       <c r="D92">
-        <f ca="1">(D$2*$A92)+$B92</f>
-        <v>-2.8946509666137623E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.7223692277688312</v>
       </c>
       <c r="E92">
-        <f ca="1">(E$2*$A92)+$B92</f>
-        <v>0.25127800675126133</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.8643012279259992</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.27963444590011721</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.3517381445570169</v>
       </c>
       <c r="B93">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.0030594071189329</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.86740874494673947</v>
       </c>
       <c r="C93">
-        <f ca="1">(C$2*$A93)+$B93</f>
-        <v>-0.72342496121881572</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.48432939961027743</v>
       </c>
       <c r="D93">
-        <f ca="1">(D$2*$A93)+$B93</f>
-        <v>-1.0030594071189329</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.86740874494673947</v>
       </c>
       <c r="E93">
-        <f ca="1">(E$2*$A93)+$B93</f>
-        <v>-1.2826938530190501</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="6"/>
+        <v>-2.2191468895037563</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.4308685649915049</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.5052488839060445</v>
       </c>
       <c r="B94">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.18802039767210435</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.89965905094596543</v>
       </c>
       <c r="C94">
-        <f ca="1">(C$2*$A94)+$B94</f>
-        <v>1.6188889626636094</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.4049079348520099</v>
       </c>
       <c r="D94">
-        <f ca="1">(D$2*$A94)+$B94</f>
-        <v>0.18802039767210435</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.89965905094596543</v>
       </c>
       <c r="E94">
-        <f ca="1">(E$2*$A94)+$B94</f>
-        <v>-1.2428481673194005</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.39441016703992093</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.20940855052305105</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.52441216839336047</v>
       </c>
       <c r="B95">
-        <f t="shared" ca="1" si="1"/>
-        <v>-4.7216436474858174E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.4443399043045575</v>
       </c>
       <c r="C95">
-        <f ca="1">(C$2*$A95)+$B95</f>
-        <v>-0.2566249869979092</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.91992773591119703</v>
       </c>
       <c r="D95">
-        <f ca="1">(D$2*$A95)+$B95</f>
-        <v>-4.7216436474858174E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.4443399043045575</v>
       </c>
       <c r="E95">
-        <f ca="1">(E$2*$A95)+$B95</f>
-        <v>0.16219211404819286</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.968752072697918</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.35351085388268355</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.1544338608136262</v>
       </c>
       <c r="B96">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.42364119341614132</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.35467712580465921</v>
       </c>
       <c r="C96">
-        <f ca="1">(C$2*$A96)+$B96</f>
-        <v>0.77715204729882492</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.79975673500896693</v>
       </c>
       <c r="D96">
-        <f ca="1">(D$2*$A96)+$B96</f>
-        <v>0.42364119341614132</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.35467712580465921</v>
       </c>
       <c r="E96">
-        <f ca="1">(E$2*$A96)+$B96</f>
-        <v>7.0130339533457764E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.5091109866182855</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.265032135492679</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.2017735596729222</v>
       </c>
       <c r="B97">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.8864625760881679E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.39821557683991216</v>
       </c>
       <c r="C97">
-        <f ca="1">(C$2*$A97)+$B97</f>
-        <v>1.2361675097317972</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.5999891365128343</v>
       </c>
       <c r="D97">
-        <f ca="1">(D$2*$A97)+$B97</f>
-        <v>-2.8864625760881679E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.39821557683991216</v>
       </c>
       <c r="E97">
-        <f ca="1">(E$2*$A97)+$B97</f>
-        <v>-1.2938967612535608</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.80355798283301005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.71825306230571706</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.33159431968884673</v>
       </c>
       <c r="B98">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.0245650685512828</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.93112877114514792</v>
       </c>
       <c r="C98">
-        <f ca="1">(C$2*$A98)+$B98</f>
-        <v>-0.30631200624556576</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.59953445145630124</v>
       </c>
       <c r="D98">
-        <f ca="1">(D$2*$A98)+$B98</f>
-        <v>-1.0245650685512828</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.93112877114514792</v>
       </c>
       <c r="E98">
-        <f ca="1">(E$2*$A98)+$B98</f>
-        <v>-1.7428181308569999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.2627230908339946</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.15266776182443986</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.10629609093633169</v>
       </c>
       <c r="B99">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.27161268722990767</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.19587712386249523</v>
       </c>
       <c r="C99">
-        <f ca="1">(C$2*$A99)+$B99</f>
-        <v>-0.11894492540546781</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-8.958103292616354E-2</v>
       </c>
       <c r="D99">
-        <f ca="1">(D$2*$A99)+$B99</f>
-        <v>-0.27161268722990767</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.19587712386249523</v>
       </c>
       <c r="E99">
-        <f ca="1">(E$2*$A99)+$B99</f>
-        <v>-0.42428044905434753</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.30217321479882692</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" ca="1" si="1"/>
-        <v>-8.4444392035221832E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.16470772579239359</v>
       </c>
       <c r="B100">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.86378259278469049</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2.4388053220453666E-2</v>
       </c>
       <c r="C100">
-        <f ca="1">(C$2*$A100)+$B100</f>
-        <v>0.9482269848199123</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.14031967257193992</v>
       </c>
       <c r="D100">
-        <f ca="1">(D$2*$A100)+$B100</f>
-        <v>0.86378259278469049</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2.4388053220453666E-2</v>
       </c>
       <c r="E100">
-        <f ca="1">(E$2*$A100)+$B100</f>
-        <v>0.77933820074946869</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.18909577901284727</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.54294725256088949</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.1244617252066829</v>
       </c>
       <c r="B101">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5.5330115726618882E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.57478505680612091</v>
       </c>
       <c r="C101">
-        <f ca="1">(C$2*$A101)+$B101</f>
-        <v>-0.59827736828750833</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.6992467820128039</v>
       </c>
       <c r="D101">
-        <f ca="1">(D$2*$A101)+$B101</f>
-        <v>-5.5330115726618882E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.57478505680612091</v>
       </c>
       <c r="E101">
-        <f ca="1">(E$2*$A101)+$B101</f>
-        <v>0.4876171368342706</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.54967666840056195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.0067781823927773</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.92819712492372985</v>
       </c>
       <c r="B102">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.90319054329034176</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.37189497876297428</v>
       </c>
       <c r="C102">
-        <f ca="1">(C$2*$A102)+$B102</f>
-        <v>0.10358763910243551</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.3000921036867041</v>
       </c>
       <c r="D102">
-        <f ca="1">(D$2*$A102)+$B102</f>
-        <v>-0.90319054329034176</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.37189497876297428</v>
       </c>
       <c r="E102">
-        <f ca="1">(E$2*$A102)+$B102</f>
-        <v>-1.909968725683119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.55630214616075557</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.75926510233586331</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.5172639601551945</v>
       </c>
       <c r="B103">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.81052808736773096</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.41552257399262371</v>
       </c>
       <c r="C103">
-        <f ca="1">(C$2*$A103)+$B103</f>
-        <v>1.5697931897035944</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.1017413861625709</v>
       </c>
       <c r="D103">
-        <f ca="1">(D$2*$A103)+$B103</f>
-        <v>0.81052808736773096</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.41552257399262371</v>
       </c>
       <c r="E103">
-        <f ca="1">(E$2*$A103)+$B103</f>
-        <v>5.1262985031867658E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.9327865341478181</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.54628201751317851</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.083651011015023</v>
       </c>
       <c r="B104">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.12236545159959412</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.38313461619909905</v>
       </c>
       <c r="C104">
-        <f ca="1">(C$2*$A104)+$B104</f>
-        <v>-0.66864746911277262</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.4667856272141222</v>
       </c>
       <c r="D104">
-        <f ca="1">(D$2*$A104)+$B104</f>
-        <v>-0.12236545159959412</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.38313461619909905</v>
       </c>
       <c r="E104">
-        <f ca="1">(E$2*$A104)+$B104</f>
-        <v>0.4239165659135844</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.70051639481592398</v>
       </c>
     </row>
   </sheetData>
@@ -7293,7 +7295,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7305,7 +7307,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
